--- a/data_month/zb/房地产/商品住宅销售面积.xlsx
+++ b/data_month/zb/房地产/商品住宅销售面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,26 @@
           <t>商品住宅销售面积_累计增长</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>商品住宅期房销售面积</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>商品住宅现房销售面积</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>商品住宅销售面积</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -476,16 +491,21 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>7482.54</v>
+        <v>577.49</v>
       </c>
       <c r="G2" t="n">
-        <v>37.5</v>
+        <v>51.7</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>577.49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -493,16 +513,21 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>8669.799999999999</v>
+        <v>1253.5</v>
       </c>
       <c r="G3" t="n">
-        <v>36.9</v>
+        <v>35.2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>676.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -510,16 +535,21 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>15136.89</v>
+        <v>1938.05</v>
       </c>
       <c r="G4" t="n">
-        <v>27.4</v>
+        <v>41.5</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>684.55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -527,16 +557,21 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>577.49</v>
+        <v>2667.36</v>
       </c>
       <c r="G5" t="n">
-        <v>51.7</v>
+        <v>39</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>729.3100000000002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -544,16 +579,21 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1253.5</v>
+        <v>3686.93</v>
       </c>
       <c r="G6" t="n">
-        <v>35.2</v>
+        <v>38.5</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1019.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -561,16 +601,21 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>1938.05</v>
+        <v>4536.84</v>
       </c>
       <c r="G7" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>849.9100000000003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -578,16 +623,21 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>2667.36</v>
+        <v>5432.51</v>
       </c>
       <c r="G8" t="n">
-        <v>39</v>
+        <v>41.4</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>895.6700000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -595,16 +645,21 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>3686.93</v>
+        <v>6420.08</v>
       </c>
       <c r="G9" t="n">
-        <v>38.5</v>
+        <v>39.8</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>987.5699999999997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -612,16 +667,21 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>4536.84</v>
+        <v>7482.54</v>
       </c>
       <c r="G10" t="n">
-        <v>39.2</v>
+        <v>37.5</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1062.46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -629,16 +689,21 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>5432.51</v>
+        <v>8669.799999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>41.4</v>
+        <v>36.9</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1187.259999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -646,16 +711,21 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>6420.08</v>
+        <v>15136.89</v>
       </c>
       <c r="G12" t="n">
-        <v>39.8</v>
+        <v>27.4</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>6467.09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -663,16 +733,21 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>9174.35</v>
+        <v>795.48</v>
       </c>
       <c r="G13" t="n">
-        <v>22.6</v>
+        <v>37.7</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>795.48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -680,16 +755,21 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>10472.71</v>
+        <v>1659.67</v>
       </c>
       <c r="G14" t="n">
-        <v>20.8</v>
+        <v>32.4</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>864.1900000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -697,14 +777,21 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>18498.79</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+        <v>2545.9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>886.23</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -712,16 +799,21 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>795.48</v>
+        <v>3442.63</v>
       </c>
       <c r="G16" t="n">
-        <v>37.7</v>
+        <v>29.1</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>896.73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -729,16 +821,21 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>1659.67</v>
+        <v>4620.39</v>
       </c>
       <c r="G17" t="n">
-        <v>32.4</v>
+        <v>25.3</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1177.76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -746,16 +843,21 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>2545.9</v>
+        <v>5746.23</v>
       </c>
       <c r="G18" t="n">
-        <v>31.4</v>
+        <v>26.7</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1125.839999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -763,16 +865,21 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>3442.63</v>
+        <v>6853.46</v>
       </c>
       <c r="G19" t="n">
-        <v>29.1</v>
+        <v>26.2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1107.23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -780,16 +887,21 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>4620.39</v>
+        <v>8101.84</v>
       </c>
       <c r="G20" t="n">
-        <v>25.3</v>
+        <v>26.2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1248.38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -797,16 +909,21 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>5746.23</v>
+        <v>9174.35</v>
       </c>
       <c r="G21" t="n">
-        <v>26.7</v>
+        <v>22.6</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1072.51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -814,16 +931,21 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>6853.46</v>
+        <v>10472.71</v>
       </c>
       <c r="G22" t="n">
-        <v>26.2</v>
+        <v>20.8</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1298.359999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -831,16 +953,19 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>8101.84</v>
-      </c>
-      <c r="G23" t="n">
-        <v>26.2</v>
+        <v>18498.79</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>8026.080000000002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -848,16 +973,19 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>11716.6</v>
-      </c>
-      <c r="G24" t="n">
-        <v>27.7</v>
+        <v>831.8200000000001</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>831.8200000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -865,16 +993,19 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>13620.05</v>
-      </c>
-      <c r="G25" t="n">
-        <v>30.1</v>
+        <v>1921.61</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1089.79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -882,16 +1013,19 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>22117.18</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.6</v>
+        <v>3033.71</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1112.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -899,14 +1033,19 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>831.8200000000001</v>
+        <v>4104.46</v>
       </c>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1070.75</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -914,14 +1053,19 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>1921.61</v>
+        <v>5646.31</v>
       </c>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1541.85</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -929,14 +1073,19 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>3033.71</v>
+        <v>6917.38</v>
       </c>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1271.07</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -944,14 +1093,19 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>4104.46</v>
+        <v>8373.49</v>
       </c>
       <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1456.11</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -959,14 +1113,21 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>5646.31</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+        <v>10053.54</v>
+      </c>
+      <c r="G31" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1680.050000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -974,14 +1135,21 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>6917.38</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+        <v>11716.6</v>
+      </c>
+      <c r="G32" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1663.059999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -989,14 +1157,21 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>8373.49</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+        <v>13620.05</v>
+      </c>
+      <c r="G33" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1903.449999999999</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1004,16 +1179,21 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>10053.54</v>
+        <v>22117.18</v>
       </c>
       <c r="G34" t="n">
-        <v>24.1</v>
+        <v>19.6</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>8497.130000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1021,16 +1201,21 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>15681.67</v>
+        <v>1396.87</v>
       </c>
       <c r="G35" t="n">
-        <v>33.4</v>
+        <v>67.90000000000001</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1396.87</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1038,16 +1223,21 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>17928.25</v>
+        <v>2791.47</v>
       </c>
       <c r="G36" t="n">
-        <v>31.3</v>
+        <v>45.3</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1394.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1055,16 +1245,21 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>28502.47</v>
+        <v>4150.23</v>
       </c>
       <c r="G37" t="n">
-        <v>28.9</v>
+        <v>36.3</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1358.76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1072,16 +1267,21 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>1396.87</v>
+        <v>5672.52</v>
       </c>
       <c r="G38" t="n">
-        <v>67.90000000000001</v>
+        <v>37</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1522.290000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1089,16 +1289,21 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>2791.47</v>
+        <v>7737.25</v>
       </c>
       <c r="G39" t="n">
-        <v>45.3</v>
+        <v>36.4</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>2064.73</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1106,16 +1311,21 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>4150.23</v>
+        <v>9512.58</v>
       </c>
       <c r="G40" t="n">
-        <v>36.3</v>
+        <v>36.9</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1775.33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1123,16 +1333,21 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>5672.52</v>
+        <v>11304.6</v>
       </c>
       <c r="G41" t="n">
-        <v>37</v>
+        <v>34.2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1792.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1140,16 +1355,21 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>7737.25</v>
+        <v>13649.78</v>
       </c>
       <c r="G42" t="n">
-        <v>36.4</v>
+        <v>35.3</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2345.18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1157,16 +1377,21 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>9512.58</v>
+        <v>15681.67</v>
       </c>
       <c r="G43" t="n">
-        <v>36.9</v>
+        <v>33.4</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>2031.889999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1174,16 +1399,21 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>11304.6</v>
+        <v>17928.25</v>
       </c>
       <c r="G44" t="n">
-        <v>34.2</v>
+        <v>31.3</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>2246.58</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1191,16 +1421,21 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>13649.78</v>
+        <v>28502.47</v>
       </c>
       <c r="G45" t="n">
-        <v>35.3</v>
+        <v>28.9</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>10574.22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1208,16 +1443,21 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>18443.86</v>
+        <v>2011.81</v>
       </c>
       <c r="G46" t="n">
-        <v>17.1</v>
+        <v>44.2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2011.81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1225,16 +1465,21 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>21209.62</v>
+        <v>3836.45</v>
       </c>
       <c r="G47" t="n">
-        <v>17.8</v>
+        <v>36.3</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1824.64</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1242,16 +1487,21 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>33819.89</v>
+        <v>5513.41</v>
       </c>
       <c r="G48" t="n">
-        <v>13.9</v>
+        <v>32.3</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1676.96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1259,16 +1509,21 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>2011.81</v>
+        <v>7404.27</v>
       </c>
       <c r="G49" t="n">
-        <v>44.2</v>
+        <v>30.3</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1890.860000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1276,16 +1531,21 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>3836.45</v>
+        <v>9831.24</v>
       </c>
       <c r="G50" t="n">
-        <v>36.3</v>
+        <v>26.4</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>2426.969999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1293,16 +1553,21 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>5513.41</v>
+        <v>11861.62</v>
       </c>
       <c r="G51" t="n">
-        <v>32.3</v>
+        <v>23.7</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>2030.380000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1310,16 +1575,21 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>7404.27</v>
+        <v>13807.95</v>
       </c>
       <c r="G52" t="n">
-        <v>30.3</v>
+        <v>21.5</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1946.33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1327,16 +1597,21 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>9831.24</v>
+        <v>16198.57</v>
       </c>
       <c r="G53" t="n">
-        <v>26.4</v>
+        <v>18.2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>2390.619999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1344,16 +1619,21 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>11861.62</v>
+        <v>18443.86</v>
       </c>
       <c r="G54" t="n">
-        <v>23.7</v>
+        <v>17.1</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>2245.290000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1361,16 +1641,21 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>13807.95</v>
+        <v>21209.62</v>
       </c>
       <c r="G55" t="n">
-        <v>21.5</v>
+        <v>17.8</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>2765.759999999998</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1378,79 +1663,87 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>16198.57</v>
+        <v>33819.89</v>
       </c>
       <c r="G56" t="n">
-        <v>18.2</v>
+        <v>13.9</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>12610.27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>22060.66</v>
-      </c>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
-        <v>13363.75</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>35424.41</v>
+        <v>2345.83</v>
       </c>
       <c r="G57" t="n">
-        <v>22.5</v>
+        <v>15.2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>2345.83</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>24393.2</v>
-      </c>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="n">
-        <v>14690.62</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>39083.82</v>
+        <v>4637.34</v>
       </c>
       <c r="G58" t="n">
-        <v>20.8</v>
+        <v>20</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2291.51</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>28603.11</v>
-      </c>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="n">
-        <v>21191.41</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>49794.52</v>
+        <v>6445.63</v>
       </c>
       <c r="G59" t="n">
-        <v>15.7</v>
+        <v>16.9</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1808.29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -1458,16 +1751,21 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>2345.83</v>
+        <v>8475.540000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>15.2</v>
+        <v>14.2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>2029.910000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -1475,16 +1773,21 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>4637.34</v>
+        <v>11223.91</v>
       </c>
       <c r="G61" t="n">
-        <v>20</v>
+        <v>14.4</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>2748.369999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -1492,4503 +1795,6149 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>6445.63</v>
+        <v>14646.57</v>
       </c>
       <c r="G62" t="n">
-        <v>16.9</v>
+        <v>23.3</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3422.66</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>17718.69</v>
+      </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>10414.89</v>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>8475.540000000001</v>
+        <v>28133.58</v>
       </c>
       <c r="G63" t="n">
-        <v>14.2</v>
+        <v>24.8</v>
+      </c>
+      <c r="H63" t="n">
+        <v>17718.69</v>
+      </c>
+      <c r="I63" t="n">
+        <v>10414.89</v>
+      </c>
+      <c r="J63" t="n">
+        <v>13487.01</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>19595.64</v>
+      </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>11735.26</v>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>11223.91</v>
+        <v>31330.9</v>
       </c>
       <c r="G64" t="n">
-        <v>14.4</v>
+        <v>23.1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1876.950000000001</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1320.370000000001</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3197.32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>22060.66</v>
+      </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>13363.75</v>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>14646.57</v>
+        <v>35424.41</v>
       </c>
       <c r="G65" t="n">
-        <v>23.3</v>
+        <v>22.5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2465.02</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1628.49</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4093.510000000002</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>17718.69</v>
+        <v>24393.2</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>10414.89</v>
+        <v>14690.62</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>28133.58</v>
+        <v>39083.82</v>
       </c>
       <c r="G66" t="n">
-        <v>24.8</v>
+        <v>20.8</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2332.540000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1326.870000000001</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3659.409999999996</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>19595.64</v>
+        <v>28603.11</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>11735.26</v>
+        <v>21191.41</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>31330.9</v>
+        <v>49794.52</v>
       </c>
       <c r="G67" t="n">
-        <v>23.1</v>
+        <v>15.7</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4209.91</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6500.789999999999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>10710.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>25346.63</v>
+        <v>3409.61</v>
       </c>
       <c r="C68" t="n">
-        <v>23.5</v>
+        <v>7.6</v>
       </c>
       <c r="D68" t="n">
-        <v>11416.68</v>
+        <v>1335.8</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.9</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>36763.31</v>
+        <v>4745.41</v>
       </c>
       <c r="G68" t="n">
-        <v>11.7</v>
+        <v>5.7</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3409.61</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1335.8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4745.41</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>28725.07</v>
+        <v>5912.34</v>
       </c>
       <c r="C69" t="n">
-        <v>25.5</v>
+        <v>13.2</v>
       </c>
       <c r="D69" t="n">
-        <v>12835.42</v>
+        <v>2565.56</v>
       </c>
       <c r="E69" t="n">
-        <v>-8.4</v>
+        <v>0.8</v>
       </c>
       <c r="F69" t="n">
-        <v>41560.49</v>
+        <v>8477.9</v>
       </c>
       <c r="G69" t="n">
-        <v>12.6</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2502.73</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1229.76</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3732.49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>35084.52</v>
+        <v>8475.18</v>
       </c>
       <c r="C70" t="n">
-        <v>31.8</v>
+        <v>15.6</v>
       </c>
       <c r="D70" t="n">
-        <v>19307.61</v>
+        <v>3742.25</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.1</v>
+        <v>-2.5</v>
       </c>
       <c r="F70" t="n">
-        <v>54392.13</v>
+        <v>12217.43</v>
       </c>
       <c r="G70" t="n">
-        <v>13.1</v>
+        <v>9.4</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2562.84</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1176.69</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3739.530000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3409.61</v>
+        <v>11428.38</v>
       </c>
       <c r="C71" t="n">
-        <v>7.6</v>
+        <v>23.7</v>
       </c>
       <c r="D71" t="n">
-        <v>1335.8</v>
+        <v>4970.78</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>-1.3</v>
       </c>
       <c r="F71" t="n">
-        <v>4745.41</v>
+        <v>16399.16</v>
       </c>
       <c r="G71" t="n">
-        <v>5.7</v>
+        <v>14.9</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2953.199999999999</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1228.53</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4181.73</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5912.34</v>
+        <v>14378.17</v>
       </c>
       <c r="C72" t="n">
-        <v>13.2</v>
+        <v>27.5</v>
       </c>
       <c r="D72" t="n">
-        <v>2565.56</v>
+        <v>6326.69</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8</v>
+        <v>-2.3</v>
       </c>
       <c r="F72" t="n">
-        <v>8477.9</v>
+        <v>20704.86</v>
       </c>
       <c r="G72" t="n">
-        <v>9.199999999999999</v>
+        <v>16.6</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2949.790000000001</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1355.91</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4305.700000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8475.18</v>
+        <v>16991.37</v>
       </c>
       <c r="C73" t="n">
-        <v>15.6</v>
+        <v>24.2</v>
       </c>
       <c r="D73" t="n">
-        <v>3742.25</v>
+        <v>7618.18</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.5</v>
+        <v>-6.7</v>
       </c>
       <c r="F73" t="n">
-        <v>12217.43</v>
+        <v>24609.55</v>
       </c>
       <c r="G73" t="n">
-        <v>9.4</v>
+        <v>12.6</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2613.199999999999</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1291.490000000001</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3904.689999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>11428.38</v>
+        <v>19584.28</v>
       </c>
       <c r="C74" t="n">
-        <v>23.7</v>
+        <v>21</v>
       </c>
       <c r="D74" t="n">
-        <v>4970.78</v>
+        <v>8697.24</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.3</v>
+        <v>-10.2</v>
       </c>
       <c r="F74" t="n">
-        <v>16399.16</v>
+        <v>28281.52</v>
       </c>
       <c r="G74" t="n">
-        <v>14.9</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2592.91</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1079.059999999999</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3671.970000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>14378.17</v>
+        <v>22288.86</v>
       </c>
       <c r="C75" t="n">
-        <v>27.5</v>
+        <v>23.3</v>
       </c>
       <c r="D75" t="n">
-        <v>6326.69</v>
+        <v>10031.84</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.3</v>
+        <v>-9.5</v>
       </c>
       <c r="F75" t="n">
-        <v>20704.86</v>
+        <v>32320.7</v>
       </c>
       <c r="G75" t="n">
-        <v>16.6</v>
+        <v>10.9</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2704.580000000002</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1334.6</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4039.18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>16991.37</v>
+        <v>25346.63</v>
       </c>
       <c r="C76" t="n">
-        <v>24.2</v>
+        <v>23.5</v>
       </c>
       <c r="D76" t="n">
-        <v>7618.18</v>
+        <v>11416.68</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.7</v>
+        <v>-7.9</v>
       </c>
       <c r="F76" t="n">
-        <v>24609.55</v>
+        <v>36763.31</v>
       </c>
       <c r="G76" t="n">
-        <v>12.6</v>
+        <v>11.7</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3057.77</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1384.84</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4442.609999999997</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>19584.28</v>
+        <v>28725.07</v>
       </c>
       <c r="C77" t="n">
-        <v>21</v>
+        <v>25.5</v>
       </c>
       <c r="D77" t="n">
-        <v>8697.24</v>
+        <v>12835.42</v>
       </c>
       <c r="E77" t="n">
-        <v>-10.2</v>
+        <v>-8.4</v>
       </c>
       <c r="F77" t="n">
-        <v>28281.52</v>
+        <v>41560.49</v>
       </c>
       <c r="G77" t="n">
-        <v>9.300000000000001</v>
+        <v>12.6</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3378.439999999999</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1418.74</v>
+      </c>
+      <c r="J77" t="n">
+        <v>4797.18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>22288.86</v>
+        <v>35084.52</v>
       </c>
       <c r="C78" t="n">
-        <v>23.3</v>
+        <v>31.8</v>
       </c>
       <c r="D78" t="n">
-        <v>10031.84</v>
+        <v>19307.61</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.5</v>
+        <v>-10.1</v>
       </c>
       <c r="F78" t="n">
-        <v>32320.7</v>
+        <v>54392.13</v>
       </c>
       <c r="G78" t="n">
-        <v>10.9</v>
+        <v>13.1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>6359.449999999997</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6472.190000000001</v>
+      </c>
+      <c r="J78" t="n">
+        <v>12831.64</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>35848.25</v>
+        <v>3639.52</v>
       </c>
       <c r="C79" t="n">
-        <v>41.4</v>
+        <v>6.7</v>
       </c>
       <c r="D79" t="n">
-        <v>13080.24</v>
+        <v>1147.55</v>
       </c>
       <c r="E79" t="n">
-        <v>14.6</v>
+        <v>-14.1</v>
       </c>
       <c r="F79" t="n">
-        <v>48928.49</v>
+        <v>4787.07</v>
       </c>
       <c r="G79" t="n">
-        <v>33.1</v>
+        <v>0.9</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3639.52</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1147.55</v>
+      </c>
+      <c r="J79" t="n">
+        <v>4787.07</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>40142.38</v>
+        <v>6938.91</v>
       </c>
       <c r="C80" t="n">
-        <v>39.7</v>
+        <v>18.3</v>
       </c>
       <c r="D80" t="n">
-        <v>14833.78</v>
+        <v>2590.25</v>
       </c>
       <c r="E80" t="n">
-        <v>15.6</v>
+        <v>1.3</v>
       </c>
       <c r="F80" t="n">
-        <v>54976.17</v>
+        <v>9529.15</v>
       </c>
       <c r="G80" t="n">
-        <v>32.3</v>
+        <v>13.1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3299.39</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1442.7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4742.08</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>47880.69</v>
+        <v>10329.72</v>
       </c>
       <c r="C81" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D81" t="n">
-        <v>21223.1</v>
+        <v>3901.65</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="F81" t="n">
-        <v>69103.78999999999</v>
+        <v>14231.36</v>
       </c>
       <c r="G81" t="n">
-        <v>24.7</v>
+        <v>16.6</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3390.809999999999</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1311.4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4702.210000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3639.52</v>
+        <v>13908.93</v>
       </c>
       <c r="C82" t="n">
-        <v>6.7</v>
+        <v>21.7</v>
       </c>
       <c r="D82" t="n">
-        <v>1147.55</v>
+        <v>5256.73</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.1</v>
+        <v>5.8</v>
       </c>
       <c r="F82" t="n">
-        <v>4787.07</v>
+        <v>19165.66</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>16.9</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3579.210000000001</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1355.079999999999</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4934.299999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6938.91</v>
+        <v>18446.7</v>
       </c>
       <c r="C83" t="n">
-        <v>18.3</v>
+        <v>28.4</v>
       </c>
       <c r="D83" t="n">
-        <v>2590.25</v>
+        <v>6904.15</v>
       </c>
       <c r="E83" t="n">
-        <v>1.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>9529.15</v>
+        <v>25350.85</v>
       </c>
       <c r="G83" t="n">
-        <v>13.1</v>
+        <v>22.5</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4537.77</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1647.42</v>
+      </c>
+      <c r="J83" t="n">
+        <v>6185.189999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>10329.72</v>
+        <v>22726.27</v>
       </c>
       <c r="C84" t="n">
-        <v>22</v>
+        <v>33.8</v>
       </c>
       <c r="D84" t="n">
-        <v>3901.65</v>
+        <v>8359.26</v>
       </c>
       <c r="E84" t="n">
-        <v>4.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>14231.36</v>
+        <v>31085.53</v>
       </c>
       <c r="G84" t="n">
-        <v>16.6</v>
+        <v>26.4</v>
+      </c>
+      <c r="H84" t="n">
+        <v>4279.57</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1455.110000000001</v>
+      </c>
+      <c r="J84" t="n">
+        <v>5734.68</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>13908.93</v>
+        <v>27204.62</v>
       </c>
       <c r="C85" t="n">
-        <v>21.7</v>
+        <v>39</v>
       </c>
       <c r="D85" t="n">
-        <v>5256.73</v>
+        <v>9787.73</v>
       </c>
       <c r="E85" t="n">
-        <v>5.8</v>
+        <v>12.6</v>
       </c>
       <c r="F85" t="n">
-        <v>19165.66</v>
+        <v>36992.35</v>
       </c>
       <c r="G85" t="n">
-        <v>16.9</v>
+        <v>30.9</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4478.349999999999</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1428.469999999999</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5906.82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>18446.7</v>
+        <v>31757.3</v>
       </c>
       <c r="C86" t="n">
-        <v>28.4</v>
+        <v>42.5</v>
       </c>
       <c r="D86" t="n">
-        <v>6904.15</v>
+        <v>11498.64</v>
       </c>
       <c r="E86" t="n">
-        <v>9.199999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="F86" t="n">
-        <v>25350.85</v>
+        <v>43255.94</v>
       </c>
       <c r="G86" t="n">
-        <v>22.5</v>
+        <v>33.9</v>
+      </c>
+      <c r="H86" t="n">
+        <v>4552.68</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1710.91</v>
+      </c>
+      <c r="J86" t="n">
+        <v>6263.590000000004</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>22726.27</v>
+        <v>35848.25</v>
       </c>
       <c r="C87" t="n">
-        <v>33.8</v>
+        <v>41.4</v>
       </c>
       <c r="D87" t="n">
-        <v>8359.26</v>
+        <v>13080.24</v>
       </c>
       <c r="E87" t="n">
-        <v>9.800000000000001</v>
+        <v>14.6</v>
       </c>
       <c r="F87" t="n">
-        <v>31085.53</v>
+        <v>48928.49</v>
       </c>
       <c r="G87" t="n">
-        <v>26.4</v>
+        <v>33.1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4090.950000000001</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1581.6</v>
+      </c>
+      <c r="J87" t="n">
+        <v>5672.549999999996</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>27204.62</v>
+        <v>40142.38</v>
       </c>
       <c r="C88" t="n">
-        <v>39</v>
+        <v>39.7</v>
       </c>
       <c r="D88" t="n">
-        <v>9787.73</v>
+        <v>14833.78</v>
       </c>
       <c r="E88" t="n">
-        <v>12.6</v>
+        <v>15.6</v>
       </c>
       <c r="F88" t="n">
-        <v>36992.35</v>
+        <v>54976.17</v>
       </c>
       <c r="G88" t="n">
-        <v>30.9</v>
+        <v>32.3</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4294.129999999997</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1753.540000000001</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6047.68</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>31757.3</v>
+        <v>47880.69</v>
       </c>
       <c r="C89" t="n">
-        <v>42.5</v>
+        <v>36</v>
       </c>
       <c r="D89" t="n">
-        <v>11498.64</v>
+        <v>21223.1</v>
       </c>
       <c r="E89" t="n">
-        <v>14.7</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
-        <v>43255.94</v>
+        <v>69103.78999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>33.9</v>
+        <v>24.7</v>
+      </c>
+      <c r="H89" t="n">
+        <v>7738.310000000005</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6389.319999999998</v>
+      </c>
+      <c r="J89" t="n">
+        <v>14127.62</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>30023.28</v>
+        <v>3566.79</v>
       </c>
       <c r="C90" t="n">
-        <v>-16.2</v>
+        <v>-2</v>
       </c>
       <c r="D90" t="n">
-        <v>10592.6</v>
+        <v>1048.48</v>
       </c>
       <c r="E90" t="n">
-        <v>-19</v>
+        <v>-8.6</v>
       </c>
       <c r="F90" t="n">
-        <v>40615.88</v>
+        <v>4615.27</v>
       </c>
       <c r="G90" t="n">
-        <v>-17</v>
+        <v>-3.6</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3566.79</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1048.48</v>
+      </c>
+      <c r="J90" t="n">
+        <v>4615.27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>32813.68</v>
+        <v>7066.77</v>
       </c>
       <c r="C91" t="n">
-        <v>-18.3</v>
+        <v>1.8</v>
       </c>
       <c r="D91" t="n">
-        <v>11831.78</v>
+        <v>2379.32</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.2</v>
+        <v>-8.1</v>
       </c>
       <c r="F91" t="n">
-        <v>44645.46</v>
+        <v>9446.09</v>
       </c>
       <c r="G91" t="n">
-        <v>-18.8</v>
+        <v>-0.9</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3499.98</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1330.84</v>
+      </c>
+      <c r="J91" t="n">
+        <v>4830.82</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>39125.94</v>
+        <v>10226.1</v>
       </c>
       <c r="C92" t="n">
-        <v>-19</v>
+        <v>-1</v>
       </c>
       <c r="D92" t="n">
-        <v>16760.53</v>
+        <v>3437.59</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.3</v>
+        <v>-11.9</v>
       </c>
       <c r="F92" t="n">
-        <v>55886.47</v>
+        <v>13663.69</v>
       </c>
       <c r="G92" t="n">
-        <v>-20.3</v>
+        <v>-4</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3159.33</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1058.27</v>
+      </c>
+      <c r="J92" t="n">
+        <v>4217.6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3566.79</v>
+        <v>13446.57</v>
       </c>
       <c r="C93" t="n">
-        <v>-2</v>
+        <v>-3.3</v>
       </c>
       <c r="D93" t="n">
-        <v>1048.48</v>
+        <v>4467.64</v>
       </c>
       <c r="E93" t="n">
-        <v>-8.6</v>
+        <v>-15</v>
       </c>
       <c r="F93" t="n">
-        <v>4615.27</v>
+        <v>17914.22</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.6</v>
+        <v>-6.5</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3220.469999999999</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1030.05</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4250.530000000001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7066.77</v>
+        <v>17704.39</v>
       </c>
       <c r="C94" t="n">
-        <v>1.8</v>
+        <v>-4</v>
       </c>
       <c r="D94" t="n">
-        <v>2379.32</v>
+        <v>5906.04</v>
       </c>
       <c r="E94" t="n">
-        <v>-8.1</v>
+        <v>-14.5</v>
       </c>
       <c r="F94" t="n">
-        <v>9446.09</v>
+        <v>23610.44</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.9</v>
+        <v>-6.9</v>
+      </c>
+      <c r="H94" t="n">
+        <v>4257.82</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1438.4</v>
+      </c>
+      <c r="J94" t="n">
+        <v>5696.219999999998</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>10226.1</v>
+        <v>20870.87</v>
       </c>
       <c r="C95" t="n">
-        <v>-1</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>3437.59</v>
+        <v>6872.49</v>
       </c>
       <c r="E95" t="n">
-        <v>-11.9</v>
+        <v>-17.8</v>
       </c>
       <c r="F95" t="n">
-        <v>13663.69</v>
+        <v>27743.35</v>
       </c>
       <c r="G95" t="n">
-        <v>-4</v>
+        <v>-10.8</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3166.48</v>
+      </c>
+      <c r="I95" t="n">
+        <v>966.4499999999998</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4132.91</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>13446.57</v>
+        <v>23655.87</v>
       </c>
       <c r="C96" t="n">
-        <v>-3.3</v>
+        <v>-13</v>
       </c>
       <c r="D96" t="n">
-        <v>4467.64</v>
+        <v>7832.78</v>
       </c>
       <c r="E96" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="F96" t="n">
-        <v>17914.22</v>
+        <v>31488.65</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.5</v>
+        <v>-14.9</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2785</v>
+      </c>
+      <c r="I96" t="n">
+        <v>960.29</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3745.300000000003</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>17704.39</v>
+        <v>27239.81</v>
       </c>
       <c r="C97" t="n">
-        <v>-4</v>
+        <v>-14.2</v>
       </c>
       <c r="D97" t="n">
-        <v>5906.04</v>
+        <v>9411.690000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>-14.5</v>
+        <v>-18.1</v>
       </c>
       <c r="F97" t="n">
-        <v>23610.44</v>
+        <v>36651.5</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.9</v>
+        <v>-15.3</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3583.940000000002</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1578.910000000001</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5162.849999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>20870.87</v>
+        <v>30023.28</v>
       </c>
       <c r="C98" t="n">
-        <v>-8.199999999999999</v>
+        <v>-16.2</v>
       </c>
       <c r="D98" t="n">
-        <v>6872.49</v>
+        <v>10592.6</v>
       </c>
       <c r="E98" t="n">
-        <v>-17.8</v>
+        <v>-19</v>
       </c>
       <c r="F98" t="n">
-        <v>27743.35</v>
+        <v>40615.88</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.8</v>
+        <v>-17</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2783.469999999998</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1180.91</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3964.379999999997</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>23655.87</v>
+        <v>32813.68</v>
       </c>
       <c r="C99" t="n">
-        <v>-13</v>
+        <v>-18.3</v>
       </c>
       <c r="D99" t="n">
-        <v>7832.78</v>
+        <v>11831.78</v>
       </c>
       <c r="E99" t="n">
-        <v>-20</v>
+        <v>-20.2</v>
       </c>
       <c r="F99" t="n">
-        <v>31488.65</v>
+        <v>44645.46</v>
       </c>
       <c r="G99" t="n">
-        <v>-14.9</v>
+        <v>-18.8</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2790.400000000001</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1239.18</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4029.580000000002</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>27239.81</v>
+        <v>39125.94</v>
       </c>
       <c r="C100" t="n">
-        <v>-14.2</v>
+        <v>-19</v>
       </c>
       <c r="D100" t="n">
-        <v>9411.690000000001</v>
+        <v>16760.53</v>
       </c>
       <c r="E100" t="n">
-        <v>-18.1</v>
+        <v>-23.3</v>
       </c>
       <c r="F100" t="n">
-        <v>36651.5</v>
+        <v>55886.47</v>
       </c>
       <c r="G100" t="n">
-        <v>-15.3</v>
+        <v>-20.3</v>
+      </c>
+      <c r="H100" t="n">
+        <v>6312.260000000002</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4928.749999999998</v>
+      </c>
+      <c r="J100" t="n">
+        <v>11241.01</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>45841.72</v>
+        <v>3581.4</v>
       </c>
       <c r="C101" t="n">
-        <v>52.7</v>
+        <v>0.4</v>
       </c>
       <c r="D101" t="n">
-        <v>15132.98</v>
+        <v>1084.17</v>
       </c>
       <c r="E101" t="n">
-        <v>42.9</v>
+        <v>3.4</v>
       </c>
       <c r="F101" t="n">
-        <v>60974.71</v>
+        <v>4665.57</v>
       </c>
       <c r="G101" t="n">
-        <v>50.1</v>
+        <v>1.1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3581.4</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1084.17</v>
+      </c>
+      <c r="J101" t="n">
+        <v>4665.57</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>51412.22</v>
+        <v>7643.09</v>
       </c>
       <c r="C102" t="n">
-        <v>56.7</v>
+        <v>7.4</v>
       </c>
       <c r="D102" t="n">
-        <v>17539.94</v>
+        <v>2685.61</v>
       </c>
       <c r="E102" t="n">
-        <v>48.2</v>
+        <v>12.6</v>
       </c>
       <c r="F102" t="n">
-        <v>68952.17</v>
+        <v>10328.7</v>
       </c>
       <c r="G102" t="n">
-        <v>54.4</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H102" t="n">
+        <v>4061.69</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1601.44</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5663.130000000001</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>62160.52</v>
+        <v>11986.35</v>
       </c>
       <c r="C103" t="n">
-        <v>55.7</v>
+        <v>17.2</v>
       </c>
       <c r="D103" t="n">
-        <v>23133.9</v>
+        <v>4218.53</v>
       </c>
       <c r="E103" t="n">
-        <v>19.5</v>
+        <v>22.6</v>
       </c>
       <c r="F103" t="n">
-        <v>85294.42</v>
+        <v>16204.88</v>
       </c>
       <c r="G103" t="n">
-        <v>43.9</v>
+        <v>18.6</v>
+      </c>
+      <c r="H103" t="n">
+        <v>4343.26</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1532.92</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5876.179999999998</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3581.4</v>
+        <v>16831.88</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4</v>
+        <v>25.2</v>
       </c>
       <c r="D104" t="n">
-        <v>1084.17</v>
+        <v>5872.38</v>
       </c>
       <c r="E104" t="n">
-        <v>3.4</v>
+        <v>31.4</v>
       </c>
       <c r="F104" t="n">
-        <v>4665.57</v>
+        <v>22704.26</v>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>26.7</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4845.530000000001</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1653.85</v>
+      </c>
+      <c r="J104" t="n">
+        <v>6499.379999999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>7643.09</v>
+        <v>23336.68</v>
       </c>
       <c r="C105" t="n">
-        <v>7.4</v>
+        <v>31.8</v>
       </c>
       <c r="D105" t="n">
-        <v>2685.61</v>
+        <v>8162.1</v>
       </c>
       <c r="E105" t="n">
-        <v>12.6</v>
+        <v>38.2</v>
       </c>
       <c r="F105" t="n">
-        <v>10328.7</v>
+        <v>31498.77</v>
       </c>
       <c r="G105" t="n">
-        <v>8.699999999999999</v>
+        <v>33.4</v>
+      </c>
+      <c r="H105" t="n">
+        <v>6504.799999999999</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2289.72</v>
+      </c>
+      <c r="J105" t="n">
+        <v>8794.510000000002</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>11986.35</v>
+        <v>28773.65</v>
       </c>
       <c r="C106" t="n">
-        <v>17.2</v>
+        <v>37.9</v>
       </c>
       <c r="D106" t="n">
-        <v>4218.53</v>
+        <v>9725.790000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>22.6</v>
+        <v>41.5</v>
       </c>
       <c r="F106" t="n">
-        <v>16204.88</v>
+        <v>38499.44</v>
       </c>
       <c r="G106" t="n">
-        <v>18.6</v>
+        <v>38.8</v>
+      </c>
+      <c r="H106" t="n">
+        <v>5436.970000000001</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1563.690000000001</v>
+      </c>
+      <c r="J106" t="n">
+        <v>7000.670000000002</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>16831.88</v>
+        <v>34088.98</v>
       </c>
       <c r="C107" t="n">
-        <v>25.2</v>
+        <v>44.1</v>
       </c>
       <c r="D107" t="n">
-        <v>5872.38</v>
+        <v>11397.08</v>
       </c>
       <c r="E107" t="n">
-        <v>31.4</v>
+        <v>45.5</v>
       </c>
       <c r="F107" t="n">
-        <v>22704.26</v>
+        <v>45486.06</v>
       </c>
       <c r="G107" t="n">
-        <v>26.7</v>
+        <v>44.5</v>
+      </c>
+      <c r="H107" t="n">
+        <v>5315.330000000002</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1671.289999999999</v>
+      </c>
+      <c r="J107" t="n">
+        <v>6986.619999999995</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>23336.68</v>
+        <v>40265.32</v>
       </c>
       <c r="C108" t="n">
-        <v>31.8</v>
+        <v>47.8</v>
       </c>
       <c r="D108" t="n">
-        <v>8162.1</v>
+        <v>13407.76</v>
       </c>
       <c r="E108" t="n">
-        <v>38.2</v>
+        <v>42.5</v>
       </c>
       <c r="F108" t="n">
-        <v>31498.77</v>
+        <v>53673.09</v>
       </c>
       <c r="G108" t="n">
-        <v>33.4</v>
+        <v>46.4</v>
+      </c>
+      <c r="H108" t="n">
+        <v>6176.339999999997</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2010.68</v>
+      </c>
+      <c r="J108" t="n">
+        <v>8187.029999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>28773.65</v>
+        <v>45841.72</v>
       </c>
       <c r="C109" t="n">
-        <v>37.9</v>
+        <v>52.7</v>
       </c>
       <c r="D109" t="n">
-        <v>9725.790000000001</v>
+        <v>15132.98</v>
       </c>
       <c r="E109" t="n">
-        <v>41.5</v>
+        <v>42.9</v>
       </c>
       <c r="F109" t="n">
-        <v>38499.44</v>
+        <v>60974.71</v>
       </c>
       <c r="G109" t="n">
-        <v>38.8</v>
+        <v>50.1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>5576.400000000001</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1725.219999999999</v>
+      </c>
+      <c r="J109" t="n">
+        <v>7301.620000000003</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>34088.98</v>
+        <v>51412.22</v>
       </c>
       <c r="C110" t="n">
-        <v>44.1</v>
+        <v>56.7</v>
       </c>
       <c r="D110" t="n">
-        <v>11397.08</v>
+        <v>17539.94</v>
       </c>
       <c r="E110" t="n">
-        <v>45.5</v>
+        <v>48.2</v>
       </c>
       <c r="F110" t="n">
-        <v>45486.06</v>
+        <v>68952.17</v>
       </c>
       <c r="G110" t="n">
-        <v>44.5</v>
+        <v>54.4</v>
+      </c>
+      <c r="H110" t="n">
+        <v>5570.5</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2406.959999999999</v>
+      </c>
+      <c r="J110" t="n">
+        <v>7977.459999999999</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>40265.32</v>
+        <v>62160.52</v>
       </c>
       <c r="C111" t="n">
-        <v>47.8</v>
+        <v>55.7</v>
       </c>
       <c r="D111" t="n">
-        <v>13407.76</v>
+        <v>23133.9</v>
       </c>
       <c r="E111" t="n">
-        <v>42.5</v>
+        <v>19.5</v>
       </c>
       <c r="F111" t="n">
-        <v>53673.09</v>
+        <v>85294.42</v>
       </c>
       <c r="G111" t="n">
-        <v>46.4</v>
+        <v>43.9</v>
+      </c>
+      <c r="H111" t="n">
+        <v>10748.3</v>
+      </c>
+      <c r="I111" t="n">
+        <v>5593.960000000003</v>
+      </c>
+      <c r="J111" t="n">
+        <v>16342.25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>51379.9208</v>
+        <v>5146.68</v>
       </c>
       <c r="C112" t="n">
-        <v>12.1</v>
+        <v>42.8</v>
       </c>
       <c r="D112" t="n">
-        <v>13715.6687</v>
+        <v>1285.97</v>
       </c>
       <c r="E112" t="n">
-        <v>-9.4</v>
+        <v>16.2</v>
       </c>
       <c r="F112" t="n">
-        <v>65095.5895</v>
+        <v>6432.65</v>
       </c>
       <c r="G112" t="n">
-        <v>6.8</v>
+        <v>36.6</v>
+      </c>
+      <c r="H112" t="n">
+        <v>5146.68</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1285.97</v>
+      </c>
+      <c r="J112" t="n">
+        <v>6432.65</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>58340.9241</v>
+        <v>10870.44</v>
       </c>
       <c r="C113" t="n">
-        <v>13.5</v>
+        <v>42.2</v>
       </c>
       <c r="D113" t="n">
-        <v>15715.5997</v>
+        <v>2991.45</v>
       </c>
       <c r="E113" t="n">
-        <v>-10.4</v>
+        <v>11.4</v>
       </c>
       <c r="F113" t="n">
-        <v>74056.5238</v>
+        <v>13861.89</v>
       </c>
       <c r="G113" t="n">
-        <v>7.4</v>
+        <v>34.2</v>
+      </c>
+      <c r="H113" t="n">
+        <v>5723.76</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1705.48</v>
+      </c>
+      <c r="J113" t="n">
+        <v>7429.24</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>71384.3711</v>
+        <v>16531.25</v>
       </c>
       <c r="C114" t="n">
-        <v>14.3</v>
+        <v>37.9</v>
       </c>
       <c r="D114" t="n">
-        <v>21667.1929</v>
+        <v>4579.29</v>
       </c>
       <c r="E114" t="n">
-        <v>-8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="F114" t="n">
-        <v>93051.564</v>
+        <v>21110.54</v>
       </c>
       <c r="G114" t="n">
-        <v>8</v>
+        <v>30.3</v>
+      </c>
+      <c r="H114" t="n">
+        <v>5660.809999999999</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1587.84</v>
+      </c>
+      <c r="J114" t="n">
+        <v>7248.650000000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>5146.68</v>
+        <v>21363.54</v>
       </c>
       <c r="C115" t="n">
-        <v>42.8</v>
+        <v>26.9</v>
       </c>
       <c r="D115" t="n">
-        <v>1285.97</v>
+        <v>5859.6</v>
       </c>
       <c r="E115" t="n">
-        <v>16.2</v>
+        <v>-0.2</v>
       </c>
       <c r="F115" t="n">
-        <v>6432.65</v>
+        <v>27223.13</v>
       </c>
       <c r="G115" t="n">
-        <v>36.6</v>
+        <v>19.9</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4832.290000000001</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1280.31</v>
+      </c>
+      <c r="J115" t="n">
+        <v>6112.59</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>10870.44</v>
+        <v>27709.05</v>
       </c>
       <c r="C116" t="n">
-        <v>42.2</v>
+        <v>18.7</v>
       </c>
       <c r="D116" t="n">
-        <v>2991.45</v>
+        <v>7787.56</v>
       </c>
       <c r="E116" t="n">
-        <v>11.4</v>
+        <v>-4.6</v>
       </c>
       <c r="F116" t="n">
-        <v>13861.89</v>
+        <v>35496.62</v>
       </c>
       <c r="G116" t="n">
-        <v>34.2</v>
+        <v>12.7</v>
+      </c>
+      <c r="H116" t="n">
+        <v>6345.509999999998</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1927.96</v>
+      </c>
+      <c r="J116" t="n">
+        <v>8273.490000000002</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>16531.25</v>
+        <v>32286.14</v>
       </c>
       <c r="C117" t="n">
-        <v>37.9</v>
+        <v>12.2</v>
       </c>
       <c r="D117" t="n">
-        <v>4579.29</v>
+        <v>8936.879999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>8.6</v>
+        <v>-8.1</v>
       </c>
       <c r="F117" t="n">
-        <v>21110.54</v>
+        <v>41223.02</v>
       </c>
       <c r="G117" t="n">
-        <v>30.3</v>
+        <v>7.1</v>
+      </c>
+      <c r="H117" t="n">
+        <v>4577.09</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1149.319999999999</v>
+      </c>
+      <c r="J117" t="n">
+        <v>5726.399999999994</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>21363.54</v>
+        <v>37140.39</v>
       </c>
       <c r="C118" t="n">
-        <v>26.9</v>
+        <v>9</v>
       </c>
       <c r="D118" t="n">
-        <v>5859.6</v>
+        <v>10212.58</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.2</v>
+        <v>-10.4</v>
       </c>
       <c r="F118" t="n">
-        <v>27223.13</v>
+        <v>47352.96</v>
       </c>
       <c r="G118" t="n">
-        <v>19.9</v>
+        <v>4.1</v>
+      </c>
+      <c r="H118" t="n">
+        <v>4854.25</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1275.700000000001</v>
+      </c>
+      <c r="J118" t="n">
+        <v>6129.940000000002</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>27709.05</v>
+        <v>44611.87</v>
       </c>
       <c r="C119" t="n">
-        <v>18.7</v>
+        <v>10.8</v>
       </c>
       <c r="D119" t="n">
-        <v>7787.56</v>
+        <v>12147.48</v>
       </c>
       <c r="E119" t="n">
-        <v>-4.6</v>
+        <v>-9.4</v>
       </c>
       <c r="F119" t="n">
-        <v>35496.62</v>
+        <v>56759.35</v>
       </c>
       <c r="G119" t="n">
-        <v>12.7</v>
+        <v>5.8</v>
+      </c>
+      <c r="H119" t="n">
+        <v>7471.480000000003</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1934.9</v>
+      </c>
+      <c r="J119" t="n">
+        <v>9406.389999999999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>32286.14</v>
+        <v>51379.9208</v>
       </c>
       <c r="C120" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D120" t="n">
-        <v>8936.879999999999</v>
+        <v>13715.6687</v>
       </c>
       <c r="E120" t="n">
-        <v>-8.1</v>
+        <v>-9.4</v>
       </c>
       <c r="F120" t="n">
-        <v>41223.02</v>
+        <v>65095.5895</v>
       </c>
       <c r="G120" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
+      </c>
+      <c r="H120" t="n">
+        <v>6768.050799999997</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1568.188700000001</v>
+      </c>
+      <c r="J120" t="n">
+        <v>8336.239500000003</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>37140.39</v>
+        <v>58340.9241</v>
       </c>
       <c r="C121" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="D121" t="n">
-        <v>10212.58</v>
+        <v>15715.5997</v>
       </c>
       <c r="E121" t="n">
         <v>-10.4</v>
       </c>
       <c r="F121" t="n">
-        <v>47352.96</v>
+        <v>74056.5238</v>
       </c>
       <c r="G121" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
+      </c>
+      <c r="H121" t="n">
+        <v>6961.003299999997</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1999.931</v>
+      </c>
+      <c r="J121" t="n">
+        <v>8960.934299999994</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>44611.87</v>
+        <v>71384.3711</v>
       </c>
       <c r="C122" t="n">
-        <v>10.8</v>
+        <v>14.3</v>
       </c>
       <c r="D122" t="n">
-        <v>12147.48</v>
+        <v>21667.1929</v>
       </c>
       <c r="E122" t="n">
-        <v>-9.4</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>56759.35</v>
+        <v>93051.564</v>
       </c>
       <c r="G122" t="n">
-        <v>5.8</v>
+        <v>8</v>
+      </c>
+      <c r="H122" t="n">
+        <v>13043.44700000001</v>
+      </c>
+      <c r="I122" t="n">
+        <v>5951.593199999998</v>
+      </c>
+      <c r="J122" t="n">
+        <v>18995.0402</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>56989.2387</v>
+        <v>6007.3862</v>
       </c>
       <c r="C123" t="n">
-        <v>10.9</v>
+        <v>16.7</v>
       </c>
       <c r="D123" t="n">
-        <v>13981.7493</v>
+        <v>1274.4421</v>
       </c>
       <c r="E123" t="n">
-        <v>1.9</v>
+        <v>-0.9</v>
       </c>
       <c r="F123" t="n">
-        <v>70970.988</v>
+        <v>7281.8283</v>
       </c>
       <c r="G123" t="n">
-        <v>9</v>
+        <v>13.2</v>
+      </c>
+      <c r="H123" t="n">
+        <v>6007.3862</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1274.4421</v>
+      </c>
+      <c r="J123" t="n">
+        <v>7281.8283</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>63518.8062</v>
+        <v>12828.3395</v>
       </c>
       <c r="C124" t="n">
-        <v>8.9</v>
+        <v>18</v>
       </c>
       <c r="D124" t="n">
-        <v>16120.3437</v>
+        <v>3021.1195</v>
       </c>
       <c r="E124" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>79639.1499</v>
+        <v>15849.459</v>
       </c>
       <c r="G124" t="n">
-        <v>7.5</v>
+        <v>14.3</v>
+      </c>
+      <c r="H124" t="n">
+        <v>6820.9533</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1746.6774</v>
+      </c>
+      <c r="J124" t="n">
+        <v>8567.630700000002</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>75181.2154</v>
+        <v>17983.2303</v>
       </c>
       <c r="C125" t="n">
-        <v>5.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>21849.0495</v>
+        <v>4361.7206</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.9</v>
+        <v>-4.8</v>
       </c>
       <c r="F125" t="n">
-        <v>97030.26489999999</v>
+        <v>22344.9509</v>
       </c>
       <c r="G125" t="n">
-        <v>3.9</v>
+        <v>5.8</v>
+      </c>
+      <c r="H125" t="n">
+        <v>5154.890799999999</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1340.6011</v>
+      </c>
+      <c r="J125" t="n">
+        <v>6495.491899999999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6007.3862</v>
+        <v>23922.6659</v>
       </c>
       <c r="C126" t="n">
-        <v>16.7</v>
+        <v>12</v>
       </c>
       <c r="D126" t="n">
-        <v>1274.4421</v>
+        <v>5619.3741</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.9</v>
+        <v>-4.1</v>
       </c>
       <c r="F126" t="n">
-        <v>7281.8283</v>
+        <v>29542.04</v>
       </c>
       <c r="G126" t="n">
-        <v>13.2</v>
+        <v>8.5</v>
+      </c>
+      <c r="H126" t="n">
+        <v>5939.435600000001</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1257.6535</v>
+      </c>
+      <c r="J126" t="n">
+        <v>7197.089100000001</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>12828.3395</v>
+        <v>32057.262</v>
       </c>
       <c r="C127" t="n">
-        <v>18</v>
+        <v>15.7</v>
       </c>
       <c r="D127" t="n">
-        <v>3021.1195</v>
+        <v>7747.3213</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="F127" t="n">
-        <v>15849.459</v>
+        <v>39804.5833</v>
       </c>
       <c r="G127" t="n">
-        <v>14.3</v>
+        <v>12.1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>8134.596099999999</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2127.9472</v>
+      </c>
+      <c r="J127" t="n">
+        <v>10262.5433</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>17983.2303</v>
+        <v>37497.2875</v>
       </c>
       <c r="C128" t="n">
-        <v>8.800000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="D128" t="n">
-        <v>4361.7206</v>
+        <v>9061.551600000001</v>
       </c>
       <c r="E128" t="n">
-        <v>-4.8</v>
+        <v>1.4</v>
       </c>
       <c r="F128" t="n">
-        <v>22344.9509</v>
+        <v>46558.8391</v>
       </c>
       <c r="G128" t="n">
-        <v>5.8</v>
+        <v>12.9</v>
+      </c>
+      <c r="H128" t="n">
+        <v>5440.0255</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1314.230300000001</v>
+      </c>
+      <c r="J128" t="n">
+        <v>6754.255799999999</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>23922.6659</v>
+        <v>43222.5769</v>
       </c>
       <c r="C129" t="n">
-        <v>12</v>
+        <v>16.4</v>
       </c>
       <c r="D129" t="n">
-        <v>5619.3741</v>
+        <v>10317.6906</v>
       </c>
       <c r="E129" t="n">
-        <v>-4.1</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>29542.04</v>
+        <v>53540.2675</v>
       </c>
       <c r="G129" t="n">
-        <v>8.5</v>
+        <v>13.1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>5725.289400000001</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1256.138999999999</v>
+      </c>
+      <c r="J129" t="n">
+        <v>6981.428400000004</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>32057.262</v>
+        <v>51260.3961</v>
       </c>
       <c r="C130" t="n">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="D130" t="n">
-        <v>7747.3213</v>
+        <v>12343.1579</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.5</v>
+        <v>1.6</v>
       </c>
       <c r="F130" t="n">
-        <v>39804.5833</v>
+        <v>63603.554</v>
       </c>
       <c r="G130" t="n">
         <v>12.1</v>
       </c>
+      <c r="H130" t="n">
+        <v>8037.819199999998</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2025.4673</v>
+      </c>
+      <c r="J130" t="n">
+        <v>10063.28649999999</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>37497.2875</v>
+        <v>56989.2387</v>
       </c>
       <c r="C131" t="n">
-        <v>16.1</v>
+        <v>10.9</v>
       </c>
       <c r="D131" t="n">
-        <v>9061.551600000001</v>
+        <v>13981.7493</v>
       </c>
       <c r="E131" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="F131" t="n">
-        <v>46558.8391</v>
+        <v>70970.988</v>
       </c>
       <c r="G131" t="n">
-        <v>12.9</v>
+        <v>9</v>
+      </c>
+      <c r="H131" t="n">
+        <v>5728.842600000004</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1638.591399999999</v>
+      </c>
+      <c r="J131" t="n">
+        <v>7367.434000000001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>43222.5769</v>
+        <v>63518.8062</v>
       </c>
       <c r="C132" t="n">
-        <v>16.4</v>
+        <v>8.9</v>
       </c>
       <c r="D132" t="n">
-        <v>10317.6906</v>
+        <v>16120.3437</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="F132" t="n">
-        <v>53540.2675</v>
+        <v>79639.1499</v>
       </c>
       <c r="G132" t="n">
-        <v>13.1</v>
+        <v>7.5</v>
+      </c>
+      <c r="H132" t="n">
+        <v>6529.567499999997</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2138.5944</v>
+      </c>
+      <c r="J132" t="n">
+        <v>8668.161900000006</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>51260.3961</v>
+        <v>75181.2154</v>
       </c>
       <c r="C133" t="n">
-        <v>14.9</v>
+        <v>5.4</v>
       </c>
       <c r="D133" t="n">
-        <v>12343.1579</v>
+        <v>21849.0495</v>
       </c>
       <c r="E133" t="n">
-        <v>1.6</v>
+        <v>-0.9</v>
       </c>
       <c r="F133" t="n">
-        <v>63603.554</v>
+        <v>97030.26489999999</v>
       </c>
       <c r="G133" t="n">
-        <v>12.1</v>
+        <v>3.9</v>
+      </c>
+      <c r="H133" t="n">
+        <v>11662.4092</v>
+      </c>
+      <c r="I133" t="n">
+        <v>5728.705800000002</v>
+      </c>
+      <c r="J133" t="n">
+        <v>17391.11499999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>55704.1891</v>
+        <v>4814.5199</v>
       </c>
       <c r="C134" t="n">
-        <v>-2.3</v>
+        <v>-19.9</v>
       </c>
       <c r="D134" t="n">
-        <v>14387.8719</v>
+        <v>1303.7685</v>
       </c>
       <c r="E134" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="F134" t="n">
-        <v>70092.061</v>
+        <v>6118.2884</v>
       </c>
       <c r="G134" t="n">
-        <v>-1.2</v>
+        <v>-16</v>
+      </c>
+      <c r="H134" t="n">
+        <v>4814.5199</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1303.7685</v>
+      </c>
+      <c r="J134" t="n">
+        <v>6118.2884</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>64493.9066</v>
+        <v>10604.749</v>
       </c>
       <c r="C135" t="n">
-        <v>1.5</v>
+        <v>-17.3</v>
       </c>
       <c r="D135" t="n">
-        <v>17005.5985</v>
+        <v>2782.0786</v>
       </c>
       <c r="E135" t="n">
-        <v>5.5</v>
+        <v>-7.9</v>
       </c>
       <c r="F135" t="n">
-        <v>81499.50509999999</v>
+        <v>13386.8276</v>
       </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>-15.5</v>
+      </c>
+      <c r="H135" t="n">
+        <v>5790.2291</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1478.3101</v>
+      </c>
+      <c r="J135" t="n">
+        <v>7268.5392</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>76377.57580000001</v>
+        <v>15014.5179</v>
       </c>
       <c r="C136" t="n">
-        <v>2.3</v>
+        <v>-16.5</v>
       </c>
       <c r="D136" t="n">
-        <v>22089.9376</v>
+        <v>3997.5247</v>
       </c>
       <c r="E136" t="n">
-        <v>1.1</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>98467.5134</v>
+        <v>19012.0426</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>-14.9</v>
+      </c>
+      <c r="H136" t="n">
+        <v>4409.768900000001</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1215.4461</v>
+      </c>
+      <c r="J136" t="n">
+        <v>5625.215</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>4814.5199</v>
+        <v>20313.5167</v>
       </c>
       <c r="C137" t="n">
-        <v>-19.9</v>
+        <v>-15.1</v>
       </c>
       <c r="D137" t="n">
-        <v>1303.7685</v>
+        <v>5244.2674</v>
       </c>
       <c r="E137" t="n">
-        <v>2.3</v>
+        <v>-6.7</v>
       </c>
       <c r="F137" t="n">
-        <v>6118.2884</v>
+        <v>25557.7841</v>
       </c>
       <c r="G137" t="n">
-        <v>-16</v>
+        <v>-13.5</v>
+      </c>
+      <c r="H137" t="n">
+        <v>5298.998799999999</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1246.7427</v>
+      </c>
+      <c r="J137" t="n">
+        <v>6545.7415</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>10604.749</v>
+        <v>28090.3501</v>
       </c>
       <c r="C138" t="n">
-        <v>-17.3</v>
+        <v>-12.4</v>
       </c>
       <c r="D138" t="n">
-        <v>2782.0786</v>
+        <v>7256.6171</v>
       </c>
       <c r="E138" t="n">
-        <v>-7.9</v>
+        <v>-6.3</v>
       </c>
       <c r="F138" t="n">
-        <v>13386.8276</v>
+        <v>35346.9672</v>
       </c>
       <c r="G138" t="n">
-        <v>-15.5</v>
+        <v>-11.2</v>
+      </c>
+      <c r="H138" t="n">
+        <v>7776.8334</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2012.349700000001</v>
+      </c>
+      <c r="J138" t="n">
+        <v>9789.183099999998</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>15014.5179</v>
+        <v>34277.9215</v>
       </c>
       <c r="C139" t="n">
-        <v>-16.5</v>
+        <v>-8.6</v>
       </c>
       <c r="D139" t="n">
-        <v>3997.5247</v>
+        <v>8799.958699999999</v>
       </c>
       <c r="E139" t="n">
-        <v>-8.300000000000001</v>
+        <v>-2.9</v>
       </c>
       <c r="F139" t="n">
-        <v>19012.0426</v>
+        <v>43077.8802</v>
       </c>
       <c r="G139" t="n">
-        <v>-14.9</v>
+        <v>-7.5</v>
+      </c>
+      <c r="H139" t="n">
+        <v>6187.571399999997</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1543.341599999999</v>
+      </c>
+      <c r="J139" t="n">
+        <v>7730.913</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>20313.5167</v>
+        <v>40726.3997</v>
       </c>
       <c r="C140" t="n">
-        <v>-15.1</v>
+        <v>-5.8</v>
       </c>
       <c r="D140" t="n">
-        <v>5244.2674</v>
+        <v>10258.4516</v>
       </c>
       <c r="E140" t="n">
-        <v>-6.7</v>
+        <v>-0.6</v>
       </c>
       <c r="F140" t="n">
-        <v>25557.7841</v>
+        <v>50984.8513</v>
       </c>
       <c r="G140" t="n">
-        <v>-13.5</v>
+        <v>-4.8</v>
+      </c>
+      <c r="H140" t="n">
+        <v>6448.478200000005</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1458.492900000001</v>
+      </c>
+      <c r="J140" t="n">
+        <v>7906.971100000002</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>28090.3501</v>
+        <v>48617.2376</v>
       </c>
       <c r="C141" t="n">
-        <v>-12.4</v>
+        <v>-5.2</v>
       </c>
       <c r="D141" t="n">
-        <v>7256.6171</v>
+        <v>12267.2677</v>
       </c>
       <c r="E141" t="n">
-        <v>-6.3</v>
+        <v>-0.6</v>
       </c>
       <c r="F141" t="n">
-        <v>35346.9672</v>
+        <v>60884.5053</v>
       </c>
       <c r="G141" t="n">
-        <v>-11.2</v>
+        <v>-4.3</v>
+      </c>
+      <c r="H141" t="n">
+        <v>7890.837899999999</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2008.8161</v>
+      </c>
+      <c r="J141" t="n">
+        <v>9899.653999999995</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>34277.9215</v>
+        <v>55704.1891</v>
       </c>
       <c r="C142" t="n">
-        <v>-8.6</v>
+        <v>-2.3</v>
       </c>
       <c r="D142" t="n">
-        <v>8799.958699999999</v>
+        <v>14387.8719</v>
       </c>
       <c r="E142" t="n">
-        <v>-2.9</v>
+        <v>2.9</v>
       </c>
       <c r="F142" t="n">
-        <v>43077.8802</v>
+        <v>70092.061</v>
       </c>
       <c r="G142" t="n">
-        <v>-7.5</v>
+        <v>-1.2</v>
+      </c>
+      <c r="H142" t="n">
+        <v>7086.951500000003</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2120.6042</v>
+      </c>
+      <c r="J142" t="n">
+        <v>9207.555700000004</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>40726.3997</v>
+        <v>64493.9066</v>
       </c>
       <c r="C143" t="n">
-        <v>-5.8</v>
+        <v>1.5</v>
       </c>
       <c r="D143" t="n">
-        <v>10258.4516</v>
+        <v>17005.5985</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.6</v>
+        <v>5.5</v>
       </c>
       <c r="F143" t="n">
-        <v>50984.8513</v>
+        <v>81499.50509999999</v>
       </c>
       <c r="G143" t="n">
-        <v>-4.8</v>
+        <v>2.3</v>
+      </c>
+      <c r="H143" t="n">
+        <v>8789.717499999999</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2617.7266</v>
+      </c>
+      <c r="J143" t="n">
+        <v>11407.44409999999</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>48617.2376</v>
+        <v>76377.57580000001</v>
       </c>
       <c r="C144" t="n">
-        <v>-5.2</v>
+        <v>2.3</v>
       </c>
       <c r="D144" t="n">
-        <v>12267.2677</v>
+        <v>22089.9376</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.6</v>
+        <v>1.1</v>
       </c>
       <c r="F144" t="n">
-        <v>60884.5053</v>
+        <v>98467.5134</v>
       </c>
       <c r="G144" t="n">
-        <v>-4.3</v>
+        <v>2</v>
+      </c>
+      <c r="H144" t="n">
+        <v>11883.6692</v>
+      </c>
+      <c r="I144" t="n">
+        <v>5084.339100000001</v>
+      </c>
+      <c r="J144" t="n">
+        <v>16968.0083</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>67561.4636</v>
+        <v>7653.5768</v>
       </c>
       <c r="C145" t="n">
-        <v>21.3</v>
+        <v>59</v>
       </c>
       <c r="D145" t="n">
-        <v>18159.7551</v>
+        <v>1840.0962</v>
       </c>
       <c r="E145" t="n">
-        <v>26.2</v>
+        <v>41.1</v>
       </c>
       <c r="F145" t="n">
-        <v>85721.2187</v>
+        <v>9493.673000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>22.3</v>
+        <v>55.2</v>
+      </c>
+      <c r="H145" t="n">
+        <v>7653.5768</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1840.0962</v>
+      </c>
+      <c r="J145" t="n">
+        <v>9493.673000000001</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>77705.4463</v>
+        <v>15049.4406</v>
       </c>
       <c r="C146" t="n">
-        <v>20.5</v>
+        <v>41.9</v>
       </c>
       <c r="D146" t="n">
-        <v>21166.0514</v>
+        <v>3851.6236</v>
       </c>
       <c r="E146" t="n">
-        <v>24.5</v>
+        <v>38.4</v>
       </c>
       <c r="F146" t="n">
-        <v>98871.49770000001</v>
+        <v>18901.0642</v>
       </c>
       <c r="G146" t="n">
-        <v>21.3</v>
+        <v>41.2</v>
+      </c>
+      <c r="H146" t="n">
+        <v>7395.8638</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2011.5274</v>
+      </c>
+      <c r="J146" t="n">
+        <v>9407.3912</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>89933.7478</v>
+        <v>21318.3382</v>
       </c>
       <c r="C147" t="n">
-        <v>17.7</v>
+        <v>42</v>
       </c>
       <c r="D147" t="n">
-        <v>25788.9405</v>
+        <v>5515.8626</v>
       </c>
       <c r="E147" t="n">
-        <v>16.7</v>
+        <v>38</v>
       </c>
       <c r="F147" t="n">
-        <v>115722.6883</v>
+        <v>26834.2008</v>
       </c>
       <c r="G147" t="n">
-        <v>17.5</v>
+        <v>41.1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>6268.897599999998</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1664.239</v>
+      </c>
+      <c r="J147" t="n">
+        <v>7933.136599999998</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>7653.5768</v>
+        <v>27933.7544</v>
       </c>
       <c r="C148" t="n">
-        <v>59</v>
+        <v>37.5</v>
       </c>
       <c r="D148" t="n">
-        <v>1840.0962</v>
+        <v>7232.1898</v>
       </c>
       <c r="E148" t="n">
-        <v>41.1</v>
+        <v>37.9</v>
       </c>
       <c r="F148" t="n">
-        <v>9493.673000000001</v>
+        <v>35165.9442</v>
       </c>
       <c r="G148" t="n">
-        <v>55.2</v>
+        <v>37.6</v>
+      </c>
+      <c r="H148" t="n">
+        <v>6615.416200000003</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1716.3272</v>
+      </c>
+      <c r="J148" t="n">
+        <v>8331.743399999999</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>15049.4406</v>
+        <v>36304.201</v>
       </c>
       <c r="C149" t="n">
-        <v>41.9</v>
+        <v>29.2</v>
       </c>
       <c r="D149" t="n">
-        <v>3851.6236</v>
+        <v>9785.4629</v>
       </c>
       <c r="E149" t="n">
-        <v>38.4</v>
+        <v>34.8</v>
       </c>
       <c r="F149" t="n">
-        <v>18901.0642</v>
+        <v>46089.6639</v>
       </c>
       <c r="G149" t="n">
-        <v>41.2</v>
+        <v>30.4</v>
+      </c>
+      <c r="H149" t="n">
+        <v>8370.446599999999</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2553.2731</v>
+      </c>
+      <c r="J149" t="n">
+        <v>10923.7197</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>21318.3382</v>
+        <v>43178.113</v>
       </c>
       <c r="C150" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D150" t="n">
-        <v>5515.8626</v>
+        <v>11569.8636</v>
       </c>
       <c r="E150" t="n">
-        <v>38</v>
+        <v>31.5</v>
       </c>
       <c r="F150" t="n">
-        <v>26834.2008</v>
+        <v>54747.9766</v>
       </c>
       <c r="G150" t="n">
-        <v>41.1</v>
+        <v>27.1</v>
+      </c>
+      <c r="H150" t="n">
+        <v>6873.911999999997</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1784.4007</v>
+      </c>
+      <c r="J150" t="n">
+        <v>8658.312700000002</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>27933.7544</v>
+        <v>50062.2767</v>
       </c>
       <c r="C151" t="n">
-        <v>37.5</v>
+        <v>22.9</v>
       </c>
       <c r="D151" t="n">
-        <v>7232.1898</v>
+        <v>13344.249</v>
       </c>
       <c r="E151" t="n">
-        <v>37.9</v>
+        <v>30.1</v>
       </c>
       <c r="F151" t="n">
-        <v>35165.9442</v>
+        <v>63406.5257</v>
       </c>
       <c r="G151" t="n">
-        <v>37.6</v>
+        <v>24.4</v>
+      </c>
+      <c r="H151" t="n">
+        <v>6884.163700000005</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1774.385399999999</v>
+      </c>
+      <c r="J151" t="n">
+        <v>8658.549099999997</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>36304.201</v>
+        <v>59448.5132</v>
       </c>
       <c r="C152" t="n">
-        <v>29.2</v>
+        <v>22.3</v>
       </c>
       <c r="D152" t="n">
-        <v>9785.4629</v>
+        <v>15985.0446</v>
       </c>
       <c r="E152" t="n">
-        <v>34.8</v>
+        <v>30.3</v>
       </c>
       <c r="F152" t="n">
-        <v>46089.6639</v>
+        <v>75433.5578</v>
       </c>
       <c r="G152" t="n">
-        <v>30.4</v>
+        <v>23.9</v>
+      </c>
+      <c r="H152" t="n">
+        <v>9386.236499999999</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2640.795599999999</v>
+      </c>
+      <c r="J152" t="n">
+        <v>12027.0321</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>43178.113</v>
+        <v>67561.4636</v>
       </c>
       <c r="C153" t="n">
-        <v>26</v>
+        <v>21.3</v>
       </c>
       <c r="D153" t="n">
-        <v>11569.8636</v>
+        <v>18159.7551</v>
       </c>
       <c r="E153" t="n">
-        <v>31.5</v>
+        <v>26.2</v>
       </c>
       <c r="F153" t="n">
-        <v>54747.9766</v>
+        <v>85721.2187</v>
       </c>
       <c r="G153" t="n">
-        <v>27.1</v>
+        <v>22.3</v>
+      </c>
+      <c r="H153" t="n">
+        <v>8112.950400000002</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2174.710499999999</v>
+      </c>
+      <c r="J153" t="n">
+        <v>10287.6609</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>50062.2767</v>
+        <v>77705.4463</v>
       </c>
       <c r="C154" t="n">
-        <v>22.9</v>
+        <v>20.5</v>
       </c>
       <c r="D154" t="n">
-        <v>13344.249</v>
+        <v>21166.0514</v>
       </c>
       <c r="E154" t="n">
-        <v>30.1</v>
+        <v>24.5</v>
       </c>
       <c r="F154" t="n">
-        <v>63406.5257</v>
+        <v>98871.49770000001</v>
       </c>
       <c r="G154" t="n">
-        <v>24.4</v>
+        <v>21.3</v>
+      </c>
+      <c r="H154" t="n">
+        <v>10143.98269999999</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3006.296300000002</v>
+      </c>
+      <c r="J154" t="n">
+        <v>13150.27900000001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>59448.5132</v>
+        <v>89933.7478</v>
       </c>
       <c r="C155" t="n">
-        <v>22.3</v>
+        <v>17.7</v>
       </c>
       <c r="D155" t="n">
-        <v>15985.0446</v>
+        <v>25788.9405</v>
       </c>
       <c r="E155" t="n">
-        <v>30.3</v>
+        <v>16.7</v>
       </c>
       <c r="F155" t="n">
-        <v>75433.5578</v>
+        <v>115722.6883</v>
       </c>
       <c r="G155" t="n">
-        <v>23.9</v>
+        <v>17.5</v>
+      </c>
+      <c r="H155" t="n">
+        <v>12228.3015</v>
+      </c>
+      <c r="I155" t="n">
+        <v>4622.8891</v>
+      </c>
+      <c r="J155" t="n">
+        <v>16851.19059999999</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>60693.5313</v>
+        <v>7436.4266</v>
       </c>
       <c r="C156" t="n">
-        <v>-10.2</v>
+        <v>-2.8</v>
       </c>
       <c r="D156" t="n">
-        <v>16913.185</v>
+        <v>1940.6726</v>
       </c>
       <c r="E156" t="n">
-        <v>-6.9</v>
+        <v>5.5</v>
       </c>
       <c r="F156" t="n">
-        <v>77606.7163</v>
+        <v>9377.099200000001</v>
       </c>
       <c r="G156" t="n">
-        <v>-9.5</v>
+        <v>-1.2</v>
+      </c>
+      <c r="H156" t="n">
+        <v>7436.4266</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1940.6726</v>
+      </c>
+      <c r="J156" t="n">
+        <v>9377.099200000001</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>69575.2962</v>
+        <v>14023.132</v>
       </c>
       <c r="C157" t="n">
-        <v>-10.5</v>
+        <v>-6.8</v>
       </c>
       <c r="D157" t="n">
-        <v>19438.6318</v>
+        <v>3801.5545</v>
       </c>
       <c r="E157" t="n">
-        <v>-8.199999999999999</v>
+        <v>-1.3</v>
       </c>
       <c r="F157" t="n">
-        <v>89013.928</v>
+        <v>17824.6865</v>
       </c>
       <c r="G157" t="n">
-        <v>-10</v>
+        <v>-5.7</v>
+      </c>
+      <c r="H157" t="n">
+        <v>6586.7054</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1860.8819</v>
+      </c>
+      <c r="J157" t="n">
+        <v>8447.587299999999</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>81469.7972</v>
+        <v>19241.3053</v>
       </c>
       <c r="C158" t="n">
-        <v>-9.4</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="D158" t="n">
-        <v>23711.9878</v>
+        <v>5273.2413</v>
       </c>
       <c r="E158" t="n">
-        <v>-8.1</v>
+        <v>-4.4</v>
       </c>
       <c r="F158" t="n">
-        <v>105181.785</v>
+        <v>24514.5466</v>
       </c>
       <c r="G158" t="n">
-        <v>-9.1</v>
+        <v>-8.6</v>
+      </c>
+      <c r="H158" t="n">
+        <v>5218.1733</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1471.686799999999</v>
+      </c>
+      <c r="J158" t="n">
+        <v>6689.860100000002</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>7436.4266</v>
+        <v>25172.1904</v>
       </c>
       <c r="C159" t="n">
-        <v>-2.8</v>
+        <v>-9.9</v>
       </c>
       <c r="D159" t="n">
-        <v>1940.6726</v>
+        <v>6774.1582</v>
       </c>
       <c r="E159" t="n">
-        <v>5.5</v>
+        <v>-6.3</v>
       </c>
       <c r="F159" t="n">
-        <v>9377.099200000001</v>
+        <v>31946.3486</v>
       </c>
       <c r="G159" t="n">
-        <v>-1.2</v>
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>5930.8851</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1500.9169</v>
+      </c>
+      <c r="J159" t="n">
+        <v>7431.802</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>14023.132</v>
+        <v>33230.8929</v>
       </c>
       <c r="C160" t="n">
-        <v>-6.8</v>
+        <v>-8.5</v>
       </c>
       <c r="D160" t="n">
-        <v>3801.5545</v>
+        <v>9256.3012</v>
       </c>
       <c r="E160" t="n">
-        <v>-1.3</v>
+        <v>-5.4</v>
       </c>
       <c r="F160" t="n">
-        <v>17824.6865</v>
+        <v>42487.1941</v>
       </c>
       <c r="G160" t="n">
-        <v>-5.7</v>
+        <v>-7.8</v>
+      </c>
+      <c r="H160" t="n">
+        <v>8058.702499999999</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2482.143</v>
+      </c>
+      <c r="J160" t="n">
+        <v>10540.8455</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>19241.3053</v>
+        <v>38745.1914</v>
       </c>
       <c r="C161" t="n">
-        <v>-9.699999999999999</v>
+        <v>-10.3</v>
       </c>
       <c r="D161" t="n">
-        <v>5273.2413</v>
+        <v>10846.8095</v>
       </c>
       <c r="E161" t="n">
-        <v>-4.4</v>
+        <v>-6.2</v>
       </c>
       <c r="F161" t="n">
-        <v>24514.5466</v>
+        <v>49592.0009</v>
       </c>
       <c r="G161" t="n">
-        <v>-8.6</v>
+        <v>-9.4</v>
+      </c>
+      <c r="H161" t="n">
+        <v>5514.298500000004</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1590.5083</v>
+      </c>
+      <c r="J161" t="n">
+        <v>7104.806799999998</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>25172.1904</v>
+        <v>44627.7895</v>
       </c>
       <c r="C162" t="n">
-        <v>-9.9</v>
+        <v>-10.9</v>
       </c>
       <c r="D162" t="n">
-        <v>6774.1582</v>
+        <v>12466.6282</v>
       </c>
       <c r="E162" t="n">
-        <v>-6.3</v>
+        <v>-6.6</v>
       </c>
       <c r="F162" t="n">
-        <v>31946.3486</v>
+        <v>57094.4177</v>
       </c>
       <c r="G162" t="n">
-        <v>-9.199999999999999</v>
+        <v>-10</v>
+      </c>
+      <c r="H162" t="n">
+        <v>5882.598099999996</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1619.8187</v>
+      </c>
+      <c r="J162" t="n">
+        <v>7502.416799999999</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>33230.8929</v>
+        <v>52850.0834</v>
       </c>
       <c r="C163" t="n">
-        <v>-8.5</v>
+        <v>-11.1</v>
       </c>
       <c r="D163" t="n">
-        <v>9256.3012</v>
+        <v>14818.5279</v>
       </c>
       <c r="E163" t="n">
-        <v>-5.4</v>
+        <v>-7.3</v>
       </c>
       <c r="F163" t="n">
-        <v>42487.1941</v>
+        <v>67668.6113</v>
       </c>
       <c r="G163" t="n">
-        <v>-7.8</v>
+        <v>-10.3</v>
+      </c>
+      <c r="H163" t="n">
+        <v>8222.293900000004</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2351.8997</v>
+      </c>
+      <c r="J163" t="n">
+        <v>10574.19360000001</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>38745.1914</v>
+        <v>60693.5313</v>
       </c>
       <c r="C164" t="n">
-        <v>-10.3</v>
+        <v>-10.2</v>
       </c>
       <c r="D164" t="n">
-        <v>10846.8095</v>
+        <v>16913.185</v>
       </c>
       <c r="E164" t="n">
-        <v>-6.2</v>
+        <v>-6.9</v>
       </c>
       <c r="F164" t="n">
-        <v>49592.0009</v>
+        <v>77606.7163</v>
       </c>
       <c r="G164" t="n">
-        <v>-9.4</v>
+        <v>-9.5</v>
+      </c>
+      <c r="H164" t="n">
+        <v>7843.447899999999</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2094.657100000002</v>
+      </c>
+      <c r="J164" t="n">
+        <v>9938.104999999996</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>44627.7895</v>
+        <v>69575.2962</v>
       </c>
       <c r="C165" t="n">
-        <v>-10.9</v>
+        <v>-10.5</v>
       </c>
       <c r="D165" t="n">
-        <v>12466.6282</v>
+        <v>19438.6318</v>
       </c>
       <c r="E165" t="n">
-        <v>-6.6</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="F165" t="n">
-        <v>57094.4177</v>
+        <v>89013.928</v>
       </c>
       <c r="G165" t="n">
         <v>-10</v>
       </c>
+      <c r="H165" t="n">
+        <v>8881.764899999995</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2525.446799999998</v>
+      </c>
+      <c r="J165" t="n">
+        <v>11407.2117</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>52850.0834</v>
+        <v>81469.7972</v>
       </c>
       <c r="C166" t="n">
-        <v>-11.1</v>
+        <v>-9.4</v>
       </c>
       <c r="D166" t="n">
-        <v>14818.5279</v>
+        <v>23711.9878</v>
       </c>
       <c r="E166" t="n">
-        <v>-7.3</v>
+        <v>-8.1</v>
       </c>
       <c r="F166" t="n">
-        <v>67668.6113</v>
+        <v>105181.785</v>
       </c>
       <c r="G166" t="n">
-        <v>-10.3</v>
+        <v>-9.1</v>
+      </c>
+      <c r="H166" t="n">
+        <v>11894.501</v>
+      </c>
+      <c r="I166" t="n">
+        <v>4273.356</v>
+      </c>
+      <c r="J166" t="n">
+        <v>16167.857</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>65383.4069</v>
+        <v>6071.3131</v>
       </c>
       <c r="C167" t="n">
-        <v>7.7</v>
+        <v>-18.4</v>
       </c>
       <c r="D167" t="n">
-        <v>18329.947</v>
+        <v>1637.7666</v>
       </c>
       <c r="E167" t="n">
-        <v>8.4</v>
+        <v>-15.6</v>
       </c>
       <c r="F167" t="n">
-        <v>83713.3539</v>
+        <v>7709.0797</v>
       </c>
       <c r="G167" t="n">
-        <v>7.9</v>
+        <v>-17.8</v>
+      </c>
+      <c r="H167" t="n">
+        <v>6071.3131</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1637.7666</v>
+      </c>
+      <c r="J167" t="n">
+        <v>7709.0797</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>74687.3689</v>
+        <v>12570.8788</v>
       </c>
       <c r="C168" t="n">
-        <v>7.3</v>
+        <v>-10.4</v>
       </c>
       <c r="D168" t="n">
-        <v>21323.3659</v>
+        <v>3507.9212</v>
       </c>
       <c r="E168" t="n">
-        <v>9.699999999999999</v>
+        <v>-7.7</v>
       </c>
       <c r="F168" t="n">
-        <v>96010.73480000001</v>
+        <v>16078.8</v>
       </c>
       <c r="G168" t="n">
-        <v>7.9</v>
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="H168" t="n">
+        <v>6499.5657</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1870.1546</v>
+      </c>
+      <c r="J168" t="n">
+        <v>8369.720299999999</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>86503.7536</v>
+        <v>18274.7038</v>
       </c>
       <c r="C169" t="n">
-        <v>6.2</v>
+        <v>-5</v>
       </c>
       <c r="D169" t="n">
-        <v>25901.9291</v>
+        <v>5009.0913</v>
       </c>
       <c r="E169" t="n">
-        <v>9.199999999999999</v>
+        <v>-5</v>
       </c>
       <c r="F169" t="n">
-        <v>112405.6827</v>
+        <v>23283.7951</v>
       </c>
       <c r="G169" t="n">
-        <v>6.9</v>
+        <v>-5</v>
+      </c>
+      <c r="H169" t="n">
+        <v>5703.824999999999</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1501.1701</v>
+      </c>
+      <c r="J169" t="n">
+        <v>7204.9951</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>6071.3131</v>
+        <v>25072.8964</v>
       </c>
       <c r="C170" t="n">
-        <v>-18.4</v>
+        <v>-0.4</v>
       </c>
       <c r="D170" t="n">
-        <v>1637.7666</v>
+        <v>6862.0789</v>
       </c>
       <c r="E170" t="n">
-        <v>-15.6</v>
+        <v>1.3</v>
       </c>
       <c r="F170" t="n">
-        <v>7709.0797</v>
+        <v>31934.9753</v>
       </c>
       <c r="G170" t="n">
-        <v>-17.8</v>
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>6798.192600000002</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1852.9876</v>
+      </c>
+      <c r="J170" t="n">
+        <v>8651.180199999999</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>12570.8788</v>
+        <v>34721.3797</v>
       </c>
       <c r="C171" t="n">
-        <v>-10.4</v>
+        <v>4.5</v>
       </c>
       <c r="D171" t="n">
-        <v>3507.9212</v>
+        <v>9667.995999999999</v>
       </c>
       <c r="E171" t="n">
-        <v>-7.7</v>
+        <v>4.4</v>
       </c>
       <c r="F171" t="n">
-        <v>16078.8</v>
+        <v>44389.3757</v>
       </c>
       <c r="G171" t="n">
-        <v>-9.800000000000001</v>
+        <v>4.5</v>
+      </c>
+      <c r="H171" t="n">
+        <v>9648.483299999996</v>
+      </c>
+      <c r="I171" t="n">
+        <v>2805.917099999999</v>
+      </c>
+      <c r="J171" t="n">
+        <v>12454.4004</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>18274.7038</v>
+        <v>41507.4666</v>
       </c>
       <c r="C172" t="n">
-        <v>-5</v>
+        <v>7.1</v>
       </c>
       <c r="D172" t="n">
-        <v>5009.0913</v>
+        <v>11501.9698</v>
       </c>
       <c r="E172" t="n">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="F172" t="n">
-        <v>23283.7951</v>
+        <v>53009.4364</v>
       </c>
       <c r="G172" t="n">
-        <v>-5</v>
+        <v>6.9</v>
+      </c>
+      <c r="H172" t="n">
+        <v>6786.086900000002</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1833.973800000002</v>
+      </c>
+      <c r="J172" t="n">
+        <v>8620.060700000002</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>25072.8964</v>
+        <v>48423.3396</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.4</v>
+        <v>8.5</v>
       </c>
       <c r="D173" t="n">
-        <v>6862.0789</v>
+        <v>13259.7528</v>
       </c>
       <c r="E173" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="F173" t="n">
-        <v>31934.9753</v>
+        <v>61683.0924</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H173" t="n">
+        <v>6915.873</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1757.782999999999</v>
+      </c>
+      <c r="J173" t="n">
+        <v>8673.656000000003</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>34721.3797</v>
+        <v>57160.4238</v>
       </c>
       <c r="C174" t="n">
-        <v>4.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D174" t="n">
-        <v>9667.995999999999</v>
+        <v>16028.7357</v>
       </c>
       <c r="E174" t="n">
-        <v>4.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F174" t="n">
-        <v>44389.3757</v>
+        <v>73189</v>
       </c>
       <c r="G174" t="n">
-        <v>4.5</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H174" t="n">
+        <v>8737.084199999998</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2768.982899999999</v>
+      </c>
+      <c r="J174" t="n">
+        <v>11505.9076</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>41507.4666</v>
+        <v>65383.4069</v>
       </c>
       <c r="C175" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="D175" t="n">
-        <v>11501.9698</v>
+        <v>18329.947</v>
       </c>
       <c r="E175" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="F175" t="n">
-        <v>53009.4364</v>
+        <v>83713.3539</v>
       </c>
       <c r="G175" t="n">
-        <v>6.9</v>
+        <v>7.9</v>
+      </c>
+      <c r="H175" t="n">
+        <v>8222.983100000005</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2301.211300000001</v>
+      </c>
+      <c r="J175" t="n">
+        <v>10524.3539</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>48423.3396</v>
+        <v>74687.3689</v>
       </c>
       <c r="C176" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="D176" t="n">
-        <v>13259.7528</v>
+        <v>21323.3659</v>
       </c>
       <c r="E176" t="n">
-        <v>6.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F176" t="n">
-        <v>61683.0924</v>
+        <v>96010.73480000001</v>
       </c>
       <c r="G176" t="n">
-        <v>8</v>
+        <v>7.9</v>
+      </c>
+      <c r="H176" t="n">
+        <v>9303.962</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2993.418900000001</v>
+      </c>
+      <c r="J176" t="n">
+        <v>12297.3809</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>57160.4238</v>
+        <v>86503.7536</v>
       </c>
       <c r="C177" t="n">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="D177" t="n">
-        <v>16028.7357</v>
+        <v>25901.9291</v>
       </c>
       <c r="E177" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F177" t="n">
-        <v>73189</v>
+        <v>112405.6827</v>
       </c>
       <c r="G177" t="n">
-        <v>8.199999999999999</v>
+        <v>6.9</v>
+      </c>
+      <c r="H177" t="n">
+        <v>11816.3847</v>
+      </c>
+      <c r="I177" t="n">
+        <v>4578.563200000001</v>
+      </c>
+      <c r="J177" t="n">
+        <v>16394.9479</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>82650.68520000001</v>
+        <v>7751.8975</v>
       </c>
       <c r="C178" t="n">
-        <v>26.4</v>
+        <v>27.7</v>
       </c>
       <c r="D178" t="n">
-        <v>23662.7416</v>
+        <v>2304.4894</v>
       </c>
       <c r="E178" t="n">
-        <v>29.1</v>
+        <v>40.7</v>
       </c>
       <c r="F178" t="n">
-        <v>106313.4268</v>
+        <v>10056.3869</v>
       </c>
       <c r="G178" t="n">
-        <v>27</v>
+        <v>30.4</v>
+      </c>
+      <c r="H178" t="n">
+        <v>7751.8975</v>
+      </c>
+      <c r="I178" t="n">
+        <v>2304.4894</v>
+      </c>
+      <c r="J178" t="n">
+        <v>10056.3869</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>92537.152</v>
+        <v>16821.3325</v>
       </c>
       <c r="C179" t="n">
-        <v>23.9</v>
+        <v>33.8</v>
       </c>
       <c r="D179" t="n">
-        <v>27025.6829</v>
+        <v>4978.7294</v>
       </c>
       <c r="E179" t="n">
-        <v>26.7</v>
+        <v>41.9</v>
       </c>
       <c r="F179" t="n">
-        <v>119562.8349</v>
+        <v>21800.0619</v>
       </c>
       <c r="G179" t="n">
-        <v>24.5</v>
+        <v>35.6</v>
+      </c>
+      <c r="H179" t="n">
+        <v>9069.435000000001</v>
+      </c>
+      <c r="I179" t="n">
+        <v>2674.24</v>
+      </c>
+      <c r="J179" t="n">
+        <v>11743.675</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>105608.6175</v>
+        <v>24986.7839</v>
       </c>
       <c r="C180" t="n">
-        <v>22.1</v>
+        <v>36.7</v>
       </c>
       <c r="D180" t="n">
-        <v>31931.3139</v>
+        <v>7328.0809</v>
       </c>
       <c r="E180" t="n">
-        <v>23.3</v>
+        <v>46.3</v>
       </c>
       <c r="F180" t="n">
-        <v>137540</v>
+        <v>32314.8648</v>
       </c>
       <c r="G180" t="n">
-        <v>22.4</v>
+        <v>38.8</v>
+      </c>
+      <c r="H180" t="n">
+        <v>8165.451399999998</v>
+      </c>
+      <c r="I180" t="n">
+        <v>2349.3515</v>
+      </c>
+      <c r="J180" t="n">
+        <v>10514.8029</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>7751.8975</v>
+        <v>33145.7784</v>
       </c>
       <c r="C181" t="n">
-        <v>27.7</v>
+        <v>32.2</v>
       </c>
       <c r="D181" t="n">
-        <v>2304.4894</v>
+        <v>9725.832200000001</v>
       </c>
       <c r="E181" t="n">
-        <v>40.7</v>
+        <v>41.7</v>
       </c>
       <c r="F181" t="n">
-        <v>10056.3869</v>
+        <v>42871.6106</v>
       </c>
       <c r="G181" t="n">
-        <v>30.4</v>
+        <v>34.2</v>
+      </c>
+      <c r="H181" t="n">
+        <v>8158.994500000004</v>
+      </c>
+      <c r="I181" t="n">
+        <v>2397.751300000001</v>
+      </c>
+      <c r="J181" t="n">
+        <v>10556.7458</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>16821.3325</v>
+        <v>44100.4379</v>
       </c>
       <c r="C182" t="n">
-        <v>33.8</v>
+        <v>27</v>
       </c>
       <c r="D182" t="n">
-        <v>4978.7294</v>
+        <v>12993.4114</v>
       </c>
       <c r="E182" t="n">
-        <v>41.9</v>
+        <v>34.4</v>
       </c>
       <c r="F182" t="n">
-        <v>21800.0619</v>
+        <v>57093.8493</v>
       </c>
       <c r="G182" t="n">
-        <v>35.6</v>
+        <v>28.6</v>
+      </c>
+      <c r="H182" t="n">
+        <v>10954.65949999999</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3267.5792</v>
+      </c>
+      <c r="J182" t="n">
+        <v>14222.2387</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>24986.7839</v>
+        <v>51940.7966</v>
       </c>
       <c r="C183" t="n">
-        <v>36.7</v>
+        <v>25.1</v>
       </c>
       <c r="D183" t="n">
-        <v>7328.0809</v>
+        <v>15212.6731</v>
       </c>
       <c r="E183" t="n">
-        <v>46.3</v>
+        <v>32.3</v>
       </c>
       <c r="F183" t="n">
-        <v>32314.8648</v>
+        <v>67153.4697</v>
       </c>
       <c r="G183" t="n">
-        <v>38.8</v>
+        <v>26.7</v>
+      </c>
+      <c r="H183" t="n">
+        <v>7840.358700000004</v>
+      </c>
+      <c r="I183" t="n">
+        <v>2219.261699999999</v>
+      </c>
+      <c r="J183" t="n">
+        <v>10059.6204</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>33145.7784</v>
+        <v>60102.724</v>
       </c>
       <c r="C184" t="n">
-        <v>32.2</v>
+        <v>24.1</v>
       </c>
       <c r="D184" t="n">
-        <v>9725.832200000001</v>
+        <v>17380.9939</v>
       </c>
       <c r="E184" t="n">
-        <v>41.7</v>
+        <v>31.1</v>
       </c>
       <c r="F184" t="n">
-        <v>42871.6106</v>
+        <v>77483.7179</v>
       </c>
       <c r="G184" t="n">
-        <v>34.2</v>
+        <v>25.6</v>
+      </c>
+      <c r="H184" t="n">
+        <v>8161.9274</v>
+      </c>
+      <c r="I184" t="n">
+        <v>2168.320800000001</v>
+      </c>
+      <c r="J184" t="n">
+        <v>10330.2482</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>44100.4379</v>
+        <v>72207.6551</v>
       </c>
       <c r="C185" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="D185" t="n">
-        <v>12993.4114</v>
+        <v>20846.3462</v>
       </c>
       <c r="E185" t="n">
-        <v>34.4</v>
+        <v>30.1</v>
       </c>
       <c r="F185" t="n">
-        <v>57093.8493</v>
+        <v>93054.0013</v>
       </c>
       <c r="G185" t="n">
-        <v>28.6</v>
+        <v>27.1</v>
+      </c>
+      <c r="H185" t="n">
+        <v>12104.9311</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3465.352299999999</v>
+      </c>
+      <c r="J185" t="n">
+        <v>15570.2834</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>51940.7966</v>
+        <v>82650.68520000001</v>
       </c>
       <c r="C186" t="n">
-        <v>25.1</v>
+        <v>26.4</v>
       </c>
       <c r="D186" t="n">
-        <v>15212.6731</v>
+        <v>23662.7416</v>
       </c>
       <c r="E186" t="n">
-        <v>32.3</v>
+        <v>29.1</v>
       </c>
       <c r="F186" t="n">
-        <v>67153.4697</v>
+        <v>106313.4268</v>
       </c>
       <c r="G186" t="n">
-        <v>26.7</v>
+        <v>27</v>
+      </c>
+      <c r="H186" t="n">
+        <v>10443.0301</v>
+      </c>
+      <c r="I186" t="n">
+        <v>2816.395400000001</v>
+      </c>
+      <c r="J186" t="n">
+        <v>13259.4255</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>60102.724</v>
+        <v>92537.152</v>
       </c>
       <c r="C187" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="D187" t="n">
-        <v>17380.9939</v>
+        <v>27025.6829</v>
       </c>
       <c r="E187" t="n">
-        <v>31.1</v>
+        <v>26.7</v>
       </c>
       <c r="F187" t="n">
-        <v>77483.7179</v>
+        <v>119562.8349</v>
       </c>
       <c r="G187" t="n">
-        <v>25.6</v>
+        <v>24.5</v>
+      </c>
+      <c r="H187" t="n">
+        <v>9886.466799999995</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3362.941299999999</v>
+      </c>
+      <c r="J187" t="n">
+        <v>13249.4081</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>72207.6551</v>
+        <v>105608.6175</v>
       </c>
       <c r="C188" t="n">
-        <v>26.3</v>
+        <v>22.1</v>
       </c>
       <c r="D188" t="n">
-        <v>20846.3462</v>
+        <v>31931.3139</v>
       </c>
       <c r="E188" t="n">
-        <v>30.1</v>
+        <v>23.3</v>
       </c>
       <c r="F188" t="n">
-        <v>93054.0013</v>
+        <v>137540</v>
       </c>
       <c r="G188" t="n">
-        <v>27.1</v>
+        <v>22.4</v>
+      </c>
+      <c r="H188" t="n">
+        <v>13071.46549999999</v>
+      </c>
+      <c r="I188" t="n">
+        <v>4905.631000000001</v>
+      </c>
+      <c r="J188" t="n">
+        <v>17977.1651</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>87787.98540000001</v>
+        <v>9720.875599999999</v>
       </c>
       <c r="C189" t="n">
-        <v>6.2</v>
+        <v>25.4</v>
       </c>
       <c r="D189" t="n">
-        <v>24456.1749</v>
+        <v>2717.6902</v>
       </c>
       <c r="E189" t="n">
-        <v>3.4</v>
+        <v>17.9</v>
       </c>
       <c r="F189" t="n">
-        <v>112244.1603</v>
+        <v>12438.5658</v>
       </c>
       <c r="G189" t="n">
-        <v>5.6</v>
+        <v>23.7</v>
+      </c>
+      <c r="H189" t="n">
+        <v>9720.875599999999</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2717.6902</v>
+      </c>
+      <c r="J189" t="n">
+        <v>12438.5658</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>98752.11780000001</v>
+        <v>19775.8738</v>
       </c>
       <c r="C190" t="n">
-        <v>6.7</v>
+        <v>17.6</v>
       </c>
       <c r="D190" t="n">
-        <v>27285.0857</v>
+        <v>5708.4305</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>14.7</v>
       </c>
       <c r="F190" t="n">
-        <v>126037.2035</v>
+        <v>25484.3043</v>
       </c>
       <c r="G190" t="n">
-        <v>5.4</v>
+        <v>16.9</v>
+      </c>
+      <c r="H190" t="n">
+        <v>10054.9982</v>
+      </c>
+      <c r="I190" t="n">
+        <v>2990.7403</v>
+      </c>
+      <c r="J190" t="n">
+        <v>13045.7385</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>113545.1274</v>
+        <v>28457.2358</v>
       </c>
       <c r="C191" t="n">
-        <v>7.5</v>
+        <v>13.9</v>
       </c>
       <c r="D191" t="n">
-        <v>31243.6414</v>
+        <v>8067.2764</v>
       </c>
       <c r="E191" t="n">
-        <v>-2.2</v>
+        <v>10.1</v>
       </c>
       <c r="F191" t="n">
-        <v>144788.7688</v>
+        <v>36524.5122</v>
       </c>
       <c r="G191" t="n">
-        <v>5.3</v>
+        <v>13</v>
+      </c>
+      <c r="H191" t="n">
+        <v>8681.361999999997</v>
+      </c>
+      <c r="I191" t="n">
+        <v>2358.845899999999</v>
+      </c>
+      <c r="J191" t="n">
+        <v>11040.2079</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>9720.875599999999</v>
+        <v>37364.5731</v>
       </c>
       <c r="C192" t="n">
-        <v>25.4</v>
+        <v>12.7</v>
       </c>
       <c r="D192" t="n">
-        <v>2717.6902</v>
+        <v>10592.1919</v>
       </c>
       <c r="E192" t="n">
-        <v>17.9</v>
+        <v>8.9</v>
       </c>
       <c r="F192" t="n">
-        <v>12438.5658</v>
+        <v>47956.765</v>
       </c>
       <c r="G192" t="n">
-        <v>23.7</v>
+        <v>11.9</v>
+      </c>
+      <c r="H192" t="n">
+        <v>8907.337300000003</v>
+      </c>
+      <c r="I192" t="n">
+        <v>2524.9155</v>
+      </c>
+      <c r="J192" t="n">
+        <v>11432.2528</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>19775.8738</v>
+        <v>50366.7198</v>
       </c>
       <c r="C193" t="n">
-        <v>17.6</v>
+        <v>14.2</v>
       </c>
       <c r="D193" t="n">
-        <v>5708.4305</v>
+        <v>14423.9904</v>
       </c>
       <c r="E193" t="n">
-        <v>14.7</v>
+        <v>11</v>
       </c>
       <c r="F193" t="n">
-        <v>25484.3043</v>
+        <v>64790.7102</v>
       </c>
       <c r="G193" t="n">
-        <v>16.9</v>
+        <v>13.5</v>
+      </c>
+      <c r="H193" t="n">
+        <v>13002.1467</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3831.798500000001</v>
+      </c>
+      <c r="J193" t="n">
+        <v>16833.9452</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>28457.2358</v>
+        <v>58280.8606</v>
       </c>
       <c r="C194" t="n">
-        <v>13.9</v>
+        <v>12.2</v>
       </c>
       <c r="D194" t="n">
-        <v>8067.2764</v>
+        <v>16595.3379</v>
       </c>
       <c r="E194" t="n">
-        <v>10.1</v>
+        <v>9.1</v>
       </c>
       <c r="F194" t="n">
-        <v>36524.5122</v>
+        <v>74876.1985</v>
       </c>
       <c r="G194" t="n">
-        <v>13</v>
+        <v>11.5</v>
+      </c>
+      <c r="H194" t="n">
+        <v>7914.140800000001</v>
+      </c>
+      <c r="I194" t="n">
+        <v>2171.347499999998</v>
+      </c>
+      <c r="J194" t="n">
+        <v>10085.4883</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>37364.5731</v>
+        <v>66673.6249</v>
       </c>
       <c r="C195" t="n">
-        <v>12.7</v>
+        <v>10.9</v>
       </c>
       <c r="D195" t="n">
-        <v>10592.1919</v>
+        <v>18773.987</v>
       </c>
       <c r="E195" t="n">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="F195" t="n">
-        <v>47956.765</v>
+        <v>85447.6119</v>
       </c>
       <c r="G195" t="n">
-        <v>11.9</v>
+        <v>10.3</v>
+      </c>
+      <c r="H195" t="n">
+        <v>8392.764299999995</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2178.649100000002</v>
+      </c>
+      <c r="J195" t="n">
+        <v>10571.4134</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>50366.7198</v>
+        <v>78255.6939</v>
       </c>
       <c r="C196" t="n">
-        <v>14.2</v>
+        <v>8.4</v>
       </c>
       <c r="D196" t="n">
-        <v>14423.9904</v>
+        <v>21875.3538</v>
       </c>
       <c r="E196" t="n">
-        <v>11</v>
+        <v>4.9</v>
       </c>
       <c r="F196" t="n">
-        <v>64790.7102</v>
+        <v>100131.0477</v>
       </c>
       <c r="G196" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
+      </c>
+      <c r="H196" t="n">
+        <v>11582.069</v>
+      </c>
+      <c r="I196" t="n">
+        <v>3101.3668</v>
+      </c>
+      <c r="J196" t="n">
+        <v>14683.43579999999</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>58280.8606</v>
+        <v>87787.98540000001</v>
       </c>
       <c r="C197" t="n">
-        <v>12.2</v>
+        <v>6.2</v>
       </c>
       <c r="D197" t="n">
-        <v>16595.3379</v>
+        <v>24456.1749</v>
       </c>
       <c r="E197" t="n">
-        <v>9.1</v>
+        <v>3.4</v>
       </c>
       <c r="F197" t="n">
-        <v>74876.1985</v>
+        <v>112244.1603</v>
       </c>
       <c r="G197" t="n">
-        <v>11.5</v>
+        <v>5.6</v>
+      </c>
+      <c r="H197" t="n">
+        <v>9532.291500000007</v>
+      </c>
+      <c r="I197" t="n">
+        <v>2580.821100000001</v>
+      </c>
+      <c r="J197" t="n">
+        <v>12113.11260000001</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>66673.6249</v>
+        <v>98752.11780000001</v>
       </c>
       <c r="C198" t="n">
-        <v>10.9</v>
+        <v>6.7</v>
       </c>
       <c r="D198" t="n">
-        <v>18773.987</v>
+        <v>27285.0857</v>
       </c>
       <c r="E198" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>85447.6119</v>
+        <v>126037.2035</v>
       </c>
       <c r="G198" t="n">
-        <v>10.3</v>
+        <v>5.4</v>
+      </c>
+      <c r="H198" t="n">
+        <v>10964.1324</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2828.910799999998</v>
+      </c>
+      <c r="J198" t="n">
+        <v>13793.0432</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>78255.6939</v>
+        <v>113545.1274</v>
       </c>
       <c r="C199" t="n">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="D199" t="n">
-        <v>21875.3538</v>
+        <v>31243.6414</v>
       </c>
       <c r="E199" t="n">
-        <v>4.9</v>
+        <v>-2.2</v>
       </c>
       <c r="F199" t="n">
-        <v>100131.0477</v>
+        <v>144788.7688</v>
       </c>
       <c r="G199" t="n">
-        <v>7.6</v>
+        <v>5.3</v>
+      </c>
+      <c r="H199" t="n">
+        <v>14793.00959999999</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3958.555700000001</v>
+      </c>
+      <c r="J199" t="n">
+        <v>18751.56529999999</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>97272.4927</v>
+        <v>10673.4125</v>
       </c>
       <c r="C200" t="n">
-        <v>10.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D200" t="n">
-        <v>18159.8003</v>
+        <v>2053.5074</v>
       </c>
       <c r="E200" t="n">
-        <v>-25.7</v>
+        <v>-24.4</v>
       </c>
       <c r="F200" t="n">
-        <v>115432.293</v>
+        <v>12726.9199</v>
       </c>
       <c r="G200" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
+      </c>
+      <c r="H200" t="n">
+        <v>10673.4125</v>
+      </c>
+      <c r="I200" t="n">
+        <v>2053.5074</v>
+      </c>
+      <c r="J200" t="n">
+        <v>12726.9199</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>108753.9899</v>
+        <v>21727.6529</v>
       </c>
       <c r="C201" t="n">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="D201" t="n">
-        <v>19959.915</v>
+        <v>4386.7738</v>
       </c>
       <c r="E201" t="n">
-        <v>-26.8</v>
+        <v>-23.2</v>
       </c>
       <c r="F201" t="n">
-        <v>128713.9049</v>
+        <v>26114.4267</v>
       </c>
       <c r="G201" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
+      </c>
+      <c r="H201" t="n">
+        <v>11054.2404</v>
+      </c>
+      <c r="I201" t="n">
+        <v>2333.2664</v>
+      </c>
+      <c r="J201" t="n">
+        <v>13387.5068</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>124724.7124</v>
+        <v>30565.1618</v>
       </c>
       <c r="C202" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="D202" t="n">
-        <v>23204.7058</v>
+        <v>6101.9274</v>
       </c>
       <c r="E202" t="n">
-        <v>-25.7</v>
+        <v>-24.4</v>
       </c>
       <c r="F202" t="n">
-        <v>147929.4214</v>
+        <v>36667.0892</v>
       </c>
       <c r="G202" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
+      </c>
+      <c r="H202" t="n">
+        <v>8837.508900000001</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1715.1536</v>
+      </c>
+      <c r="J202" t="n">
+        <v>10552.6625</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>10673.4125</v>
+        <v>41025.7574</v>
       </c>
       <c r="C203" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="D203" t="n">
-        <v>2053.5074</v>
+        <v>8039.8589</v>
       </c>
       <c r="E203" t="n">
-        <v>-24.4</v>
+        <v>-24.1</v>
       </c>
       <c r="F203" t="n">
-        <v>12726.9199</v>
+        <v>49065.6163</v>
       </c>
       <c r="G203" t="n">
         <v>2.3</v>
       </c>
+      <c r="H203" t="n">
+        <v>10460.5956</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1937.931500000001</v>
+      </c>
+      <c r="J203" t="n">
+        <v>12398.5271</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>21727.6529</v>
+        <v>55712.4444</v>
       </c>
       <c r="C204" t="n">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="D204" t="n">
-        <v>4386.7738</v>
+        <v>11139.4875</v>
       </c>
       <c r="E204" t="n">
-        <v>-23.2</v>
+        <v>-22.8</v>
       </c>
       <c r="F204" t="n">
-        <v>26114.4267</v>
+        <v>66851.9319</v>
       </c>
       <c r="G204" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
+      </c>
+      <c r="H204" t="n">
+        <v>14686.687</v>
+      </c>
+      <c r="I204" t="n">
+        <v>3099.628599999999</v>
+      </c>
+      <c r="J204" t="n">
+        <v>17786.31559999999</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>30565.1618</v>
+        <v>65082.3878</v>
       </c>
       <c r="C205" t="n">
-        <v>7.4</v>
+        <v>11.7</v>
       </c>
       <c r="D205" t="n">
-        <v>6101.9274</v>
+        <v>12963.731</v>
       </c>
       <c r="E205" t="n">
-        <v>-24.4</v>
+        <v>-21.9</v>
       </c>
       <c r="F205" t="n">
-        <v>36667.0892</v>
+        <v>78046.1188</v>
       </c>
       <c r="G205" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
+      </c>
+      <c r="H205" t="n">
+        <v>9369.943399999996</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1824.2435</v>
+      </c>
+      <c r="J205" t="n">
+        <v>11194.1869</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>41025.7574</v>
+        <v>74477.3628</v>
       </c>
       <c r="C206" t="n">
-        <v>9.800000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="D206" t="n">
-        <v>8039.8589</v>
+        <v>14436.3866</v>
       </c>
       <c r="E206" t="n">
-        <v>-24.1</v>
+        <v>-23.1</v>
       </c>
       <c r="F206" t="n">
-        <v>49065.6163</v>
+        <v>88913.7494</v>
       </c>
       <c r="G206" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
+      </c>
+      <c r="H206" t="n">
+        <v>9394.975000000006</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1472.6556</v>
+      </c>
+      <c r="J206" t="n">
+        <v>10867.6306</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>55712.4444</v>
+        <v>86865.6934</v>
       </c>
       <c r="C207" t="n">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="D207" t="n">
-        <v>11139.4875</v>
+        <v>16613.0972</v>
       </c>
       <c r="E207" t="n">
-        <v>-22.8</v>
+        <v>-24.1</v>
       </c>
       <c r="F207" t="n">
-        <v>66851.9319</v>
+        <v>103478.7906</v>
       </c>
       <c r="G207" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
+      </c>
+      <c r="H207" t="n">
+        <v>12388.3306</v>
+      </c>
+      <c r="I207" t="n">
+        <v>2176.7106</v>
+      </c>
+      <c r="J207" t="n">
+        <v>14565.04119999999</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>65082.3878</v>
+        <v>97272.4927</v>
       </c>
       <c r="C208" t="n">
-        <v>11.7</v>
+        <v>10.8</v>
       </c>
       <c r="D208" t="n">
-        <v>12963.731</v>
+        <v>18159.8003</v>
       </c>
       <c r="E208" t="n">
-        <v>-21.9</v>
+        <v>-25.7</v>
       </c>
       <c r="F208" t="n">
-        <v>78046.1188</v>
+        <v>115432.293</v>
       </c>
       <c r="G208" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
+      </c>
+      <c r="H208" t="n">
+        <v>10406.7993</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1546.703099999999</v>
+      </c>
+      <c r="J208" t="n">
+        <v>11953.50240000001</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>74477.3628</v>
+        <v>108753.9899</v>
       </c>
       <c r="C209" t="n">
-        <v>11.7</v>
+        <v>10.1</v>
       </c>
       <c r="D209" t="n">
-        <v>14436.3866</v>
+        <v>19959.915</v>
       </c>
       <c r="E209" t="n">
-        <v>-23.1</v>
+        <v>-26.8</v>
       </c>
       <c r="F209" t="n">
-        <v>88913.7494</v>
+        <v>128713.9049</v>
       </c>
       <c r="G209" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
+      </c>
+      <c r="H209" t="n">
+        <v>11481.4972</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1800.114700000002</v>
+      </c>
+      <c r="J209" t="n">
+        <v>13281.61189999999</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>86865.6934</v>
+        <v>124724.7124</v>
       </c>
       <c r="C210" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D210" t="n">
-        <v>16613.0972</v>
+        <v>23204.7058</v>
       </c>
       <c r="E210" t="n">
-        <v>-24.1</v>
+        <v>-25.7</v>
       </c>
       <c r="F210" t="n">
-        <v>103478.7906</v>
+        <v>147929.4214</v>
       </c>
       <c r="G210" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
+      </c>
+      <c r="H210" t="n">
+        <v>15970.7225</v>
+      </c>
+      <c r="I210" t="n">
+        <v>3244.790799999999</v>
+      </c>
+      <c r="J210" t="n">
+        <v>19215.5165</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>103081.4167</v>
+        <v>10731.1585</v>
       </c>
       <c r="C211" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="D211" t="n">
-        <v>14051.0868</v>
+        <v>1588.3409</v>
       </c>
       <c r="E211" t="n">
-        <v>-22.6</v>
+        <v>-22.7</v>
       </c>
       <c r="F211" t="n">
-        <v>117132.5035</v>
+        <v>12319.4994</v>
       </c>
       <c r="G211" t="n">
-        <v>1.5</v>
+        <v>-3.2</v>
+      </c>
+      <c r="H211" t="n">
+        <v>10731.1585</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1588.3409</v>
+      </c>
+      <c r="J211" t="n">
+        <v>12319.4994</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>115135.1189</v>
+        <v>22557.0827</v>
       </c>
       <c r="C212" t="n">
-        <v>5.9</v>
+        <v>3.8</v>
       </c>
       <c r="D212" t="n">
-        <v>15670.0152</v>
+        <v>3396.445</v>
       </c>
       <c r="E212" t="n">
-        <v>-21.5</v>
+        <v>-22.6</v>
       </c>
       <c r="F212" t="n">
-        <v>130805.1341</v>
+        <v>25953.5277</v>
       </c>
       <c r="G212" t="n">
-        <v>1.6</v>
+        <v>-0.6</v>
+      </c>
+      <c r="H212" t="n">
+        <v>11825.9242</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1808.1041</v>
+      </c>
+      <c r="J212" t="n">
+        <v>13634.0283</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>131929.1176</v>
+        <v>32119.2919</v>
       </c>
       <c r="C213" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="D213" t="n">
-        <v>18215.2073</v>
+        <v>4676.4901</v>
       </c>
       <c r="E213" t="n">
-        <v>-21.5</v>
+        <v>-23.4</v>
       </c>
       <c r="F213" t="n">
-        <v>150144.3249</v>
+        <v>36795.782</v>
       </c>
       <c r="G213" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="H213" t="n">
+        <v>9562.209200000001</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1280.0451</v>
+      </c>
+      <c r="J213" t="n">
+        <v>10842.2543</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>10731.1585</v>
+        <v>42524.3184</v>
       </c>
       <c r="C214" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="D214" t="n">
-        <v>1588.3409</v>
+        <v>6183.9216</v>
       </c>
       <c r="E214" t="n">
-        <v>-22.7</v>
+        <v>-23.1</v>
       </c>
       <c r="F214" t="n">
-        <v>12319.4994</v>
+        <v>48708.24</v>
       </c>
       <c r="G214" t="n">
-        <v>-3.2</v>
+        <v>-0.7</v>
+      </c>
+      <c r="H214" t="n">
+        <v>10405.0265</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1507.4315</v>
+      </c>
+      <c r="J214" t="n">
+        <v>11912.458</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>22557.0827</v>
+        <v>57590.405</v>
       </c>
       <c r="C215" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D215" t="n">
-        <v>3396.445</v>
+        <v>8590.201800000001</v>
       </c>
       <c r="E215" t="n">
-        <v>-22.6</v>
+        <v>-22.9</v>
       </c>
       <c r="F215" t="n">
-        <v>25953.5277</v>
+        <v>66180.60679999999</v>
       </c>
       <c r="G215" t="n">
-        <v>-0.6</v>
+        <v>-1</v>
+      </c>
+      <c r="H215" t="n">
+        <v>15066.0866</v>
+      </c>
+      <c r="I215" t="n">
+        <v>2406.280200000001</v>
+      </c>
+      <c r="J215" t="n">
+        <v>17472.3668</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>32119.2919</v>
+        <v>67906.12549999999</v>
       </c>
       <c r="C216" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="D216" t="n">
-        <v>4676.4901</v>
+        <v>9849.5615</v>
       </c>
       <c r="E216" t="n">
-        <v>-23.4</v>
+        <v>-24</v>
       </c>
       <c r="F216" t="n">
-        <v>36795.782</v>
+        <v>77755.68700000001</v>
       </c>
       <c r="G216" t="n">
-        <v>0.4</v>
+        <v>-0.4</v>
+      </c>
+      <c r="H216" t="n">
+        <v>10315.7205</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1259.359699999999</v>
+      </c>
+      <c r="J216" t="n">
+        <v>11575.08020000001</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>42524.3184</v>
+        <v>78373.8955</v>
       </c>
       <c r="C217" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="D217" t="n">
-        <v>6183.9216</v>
+        <v>11035.9606</v>
       </c>
       <c r="E217" t="n">
-        <v>-23.1</v>
+        <v>-23.6</v>
       </c>
       <c r="F217" t="n">
-        <v>48708.24</v>
+        <v>89409.8561</v>
       </c>
       <c r="G217" t="n">
-        <v>-0.7</v>
+        <v>0.6</v>
+      </c>
+      <c r="H217" t="n">
+        <v>10467.77</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1186.399100000001</v>
+      </c>
+      <c r="J217" t="n">
+        <v>11654.1691</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>57590.405</v>
+        <v>91963.22470000001</v>
       </c>
       <c r="C218" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="D218" t="n">
-        <v>8590.201800000001</v>
+        <v>12686.4949</v>
       </c>
       <c r="E218" t="n">
-        <v>-22.9</v>
+        <v>-23.6</v>
       </c>
       <c r="F218" t="n">
-        <v>66180.60679999999</v>
+        <v>104649.7196</v>
       </c>
       <c r="G218" t="n">
-        <v>-1</v>
+        <v>1.1</v>
+      </c>
+      <c r="H218" t="n">
+        <v>13589.32920000001</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1650.534299999999</v>
+      </c>
+      <c r="J218" t="n">
+        <v>15239.86349999999</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>67906.12549999999</v>
+        <v>103081.4167</v>
       </c>
       <c r="C219" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>9849.5615</v>
+        <v>14051.0868</v>
       </c>
       <c r="E219" t="n">
-        <v>-24</v>
+        <v>-22.6</v>
       </c>
       <c r="F219" t="n">
-        <v>77755.68700000001</v>
+        <v>117132.5035</v>
       </c>
       <c r="G219" t="n">
-        <v>-0.4</v>
+        <v>1.5</v>
+      </c>
+      <c r="H219" t="n">
+        <v>11118.192</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1364.591899999999</v>
+      </c>
+      <c r="J219" t="n">
+        <v>12482.78390000001</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>78373.8955</v>
+        <v>115135.1189</v>
       </c>
       <c r="C220" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="D220" t="n">
-        <v>11035.9606</v>
+        <v>15670.0152</v>
       </c>
       <c r="E220" t="n">
-        <v>-23.6</v>
+        <v>-21.5</v>
       </c>
       <c r="F220" t="n">
-        <v>89409.8561</v>
+        <v>130805.1341</v>
       </c>
       <c r="G220" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
+      </c>
+      <c r="H220" t="n">
+        <v>12053.7022</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1618.928400000001</v>
+      </c>
+      <c r="J220" t="n">
+        <v>13672.63059999999</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>91963.22470000001</v>
+        <v>131929.1176</v>
       </c>
       <c r="C221" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="D221" t="n">
-        <v>12686.4949</v>
+        <v>18215.2073</v>
       </c>
       <c r="E221" t="n">
-        <v>-23.6</v>
+        <v>-21.5</v>
       </c>
       <c r="F221" t="n">
-        <v>104649.7196</v>
+        <v>150144.3249</v>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
+      </c>
+      <c r="H221" t="n">
+        <v>16793.9987</v>
+      </c>
+      <c r="I221" t="n">
+        <v>2545.192099999998</v>
+      </c>
+      <c r="J221" t="n">
+        <v>19339.19080000001</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>106282.4446</v>
+        <v>6601.2012</v>
       </c>
       <c r="C222" t="n">
-        <v>3.1</v>
+        <v>-38.5</v>
       </c>
       <c r="D222" t="n">
-        <v>11809.6449</v>
+        <v>887.7505</v>
       </c>
       <c r="E222" t="n">
-        <v>-16</v>
+        <v>-44.1</v>
       </c>
       <c r="F222" t="n">
-        <v>118092.0895</v>
+        <v>7488.9517</v>
       </c>
       <c r="G222" t="n">
-        <v>0.8</v>
+        <v>-39.2</v>
+      </c>
+      <c r="H222" t="n">
+        <v>6601.2012</v>
+      </c>
+      <c r="I222" t="n">
+        <v>887.7505</v>
+      </c>
+      <c r="J222" t="n">
+        <v>7488.9517</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>119883.4026</v>
+        <v>17046.5703</v>
       </c>
       <c r="C223" t="n">
-        <v>4.1</v>
+        <v>-24.4</v>
       </c>
       <c r="D223" t="n">
-        <v>13423.9106</v>
+        <v>2188.1957</v>
       </c>
       <c r="E223" t="n">
-        <v>-14.3</v>
+        <v>-35.6</v>
       </c>
       <c r="F223" t="n">
-        <v>133307.3132</v>
+        <v>19234.766</v>
       </c>
       <c r="G223" t="n">
-        <v>1.9</v>
+        <v>-25.9</v>
+      </c>
+      <c r="H223" t="n">
+        <v>10445.3691</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1300.4452</v>
+      </c>
+      <c r="J223" t="n">
+        <v>11745.8143</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>139141.9906</v>
+        <v>26649.2628</v>
       </c>
       <c r="C224" t="n">
-        <v>5.5</v>
+        <v>-17</v>
       </c>
       <c r="D224" t="n">
-        <v>15736.4792</v>
+        <v>3266.9196</v>
       </c>
       <c r="E224" t="n">
-        <v>-13.6</v>
+        <v>-30.1</v>
       </c>
       <c r="F224" t="n">
-        <v>154878.4698</v>
+        <v>29916.1824</v>
       </c>
       <c r="G224" t="n">
-        <v>3.2</v>
+        <v>-18.7</v>
+      </c>
+      <c r="H224" t="n">
+        <v>9602.692500000001</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1078.7239</v>
+      </c>
+      <c r="J224" t="n">
+        <v>10681.4164</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>6601.2012</v>
+        <v>38358.4323</v>
       </c>
       <c r="C225" t="n">
-        <v>-38.5</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="D225" t="n">
-        <v>887.7505</v>
+        <v>4582.9053</v>
       </c>
       <c r="E225" t="n">
-        <v>-44.1</v>
+        <v>-25.9</v>
       </c>
       <c r="F225" t="n">
-        <v>7488.9517</v>
+        <v>42941.3376</v>
       </c>
       <c r="G225" t="n">
-        <v>-39.2</v>
+        <v>-11.8</v>
+      </c>
+      <c r="H225" t="n">
+        <v>11709.1695</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1315.9857</v>
+      </c>
+      <c r="J225" t="n">
+        <v>13025.1552</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>17046.5703</v>
+        <v>54733.4913</v>
       </c>
       <c r="C226" t="n">
-        <v>-24.4</v>
+        <v>-5</v>
       </c>
       <c r="D226" t="n">
-        <v>2188.1957</v>
+        <v>6385.8501</v>
       </c>
       <c r="E226" t="n">
-        <v>-35.6</v>
+        <v>-25.7</v>
       </c>
       <c r="F226" t="n">
-        <v>19234.766</v>
+        <v>61119.3414</v>
       </c>
       <c r="G226" t="n">
-        <v>-25.9</v>
+        <v>-7.6</v>
+      </c>
+      <c r="H226" t="n">
+        <v>16375.059</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1802.944799999999</v>
+      </c>
+      <c r="J226" t="n">
+        <v>18178.0038</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>26649.2628</v>
+        <v>66245.51459999999</v>
       </c>
       <c r="C227" t="n">
-        <v>-17</v>
+        <v>-2.4</v>
       </c>
       <c r="D227" t="n">
-        <v>3266.9196</v>
+        <v>7592.5725</v>
       </c>
       <c r="E227" t="n">
-        <v>-30.1</v>
+        <v>-22.9</v>
       </c>
       <c r="F227" t="n">
-        <v>29916.1824</v>
+        <v>73838.0871</v>
       </c>
       <c r="G227" t="n">
-        <v>-18.7</v>
+        <v>-5</v>
+      </c>
+      <c r="H227" t="n">
+        <v>11512.02329999999</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1206.722400000001</v>
+      </c>
+      <c r="J227" t="n">
+        <v>12718.74570000001</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>38358.4323</v>
+        <v>78387.1289</v>
       </c>
       <c r="C228" t="n">
-        <v>-9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>4582.9053</v>
+        <v>8813.3192</v>
       </c>
       <c r="E228" t="n">
-        <v>-25.9</v>
+        <v>-20.1</v>
       </c>
       <c r="F228" t="n">
-        <v>42941.3376</v>
+        <v>87200.44809999999</v>
       </c>
       <c r="G228" t="n">
-        <v>-11.8</v>
+        <v>-2.5</v>
+      </c>
+      <c r="H228" t="n">
+        <v>12141.6143</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1220.7467</v>
+      </c>
+      <c r="J228" t="n">
+        <v>13362.36099999999</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>54733.4913</v>
+        <v>93194.6174</v>
       </c>
       <c r="C229" t="n">
-        <v>-5</v>
+        <v>1.3</v>
       </c>
       <c r="D229" t="n">
-        <v>6385.8501</v>
+        <v>10419.5939</v>
       </c>
       <c r="E229" t="n">
-        <v>-25.7</v>
+        <v>-17.9</v>
       </c>
       <c r="F229" t="n">
-        <v>61119.3414</v>
+        <v>103614.2113</v>
       </c>
       <c r="G229" t="n">
-        <v>-7.6</v>
+        <v>-1</v>
+      </c>
+      <c r="H229" t="n">
+        <v>14807.48850000001</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1606.2747</v>
+      </c>
+      <c r="J229" t="n">
+        <v>16413.7632</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>66245.51459999999</v>
+        <v>106282.4446</v>
       </c>
       <c r="C230" t="n">
-        <v>-2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D230" t="n">
-        <v>7592.5725</v>
+        <v>11809.6449</v>
       </c>
       <c r="E230" t="n">
-        <v>-22.9</v>
+        <v>-16</v>
       </c>
       <c r="F230" t="n">
-        <v>73838.0871</v>
+        <v>118092.0895</v>
       </c>
       <c r="G230" t="n">
-        <v>-5</v>
+        <v>0.8</v>
+      </c>
+      <c r="H230" t="n">
+        <v>13087.8272</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1390.050999999999</v>
+      </c>
+      <c r="J230" t="n">
+        <v>14477.87820000001</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>78387.1289</v>
+        <v>119883.4026</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="D231" t="n">
-        <v>8813.3192</v>
+        <v>13423.9106</v>
       </c>
       <c r="E231" t="n">
-        <v>-20.1</v>
+        <v>-14.3</v>
       </c>
       <c r="F231" t="n">
-        <v>87200.44809999999</v>
+        <v>133307.3132</v>
       </c>
       <c r="G231" t="n">
-        <v>-2.5</v>
+        <v>1.9</v>
+      </c>
+      <c r="H231" t="n">
+        <v>13600.958</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1614.2657</v>
+      </c>
+      <c r="J231" t="n">
+        <v>15215.2237</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>93194.6174</v>
+        <v>139141.9906</v>
       </c>
       <c r="C232" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="D232" t="n">
-        <v>10419.5939</v>
+        <v>15736.4792</v>
       </c>
       <c r="E232" t="n">
-        <v>-17.9</v>
+        <v>-13.6</v>
       </c>
       <c r="F232" t="n">
-        <v>103614.2113</v>
+        <v>154878.4698</v>
       </c>
       <c r="G232" t="n">
-        <v>-1</v>
+        <v>3.2</v>
+      </c>
+      <c r="H232" t="n">
+        <v>19258.58799999999</v>
+      </c>
+      <c r="I232" t="n">
+        <v>2312.568600000001</v>
+      </c>
+      <c r="J232" t="n">
+        <v>21571.15659999999</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>113967.0152</v>
+        <v>14061.8021</v>
       </c>
       <c r="C233" t="n">
-        <v>7.2</v>
+        <v>113</v>
       </c>
       <c r="D233" t="n">
-        <v>12452.232</v>
+        <v>1547.5371</v>
       </c>
       <c r="E233" t="n">
-        <v>5.4</v>
+        <v>74.3</v>
       </c>
       <c r="F233" t="n">
-        <v>126419.2472</v>
+        <v>15609.3392</v>
       </c>
       <c r="G233" t="n">
-        <v>7.1</v>
+        <v>108.4</v>
+      </c>
+      <c r="H233" t="n">
+        <v>14061.8021</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1547.5371</v>
+      </c>
+      <c r="J233" t="n">
+        <v>15609.3392</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>125180.0134</v>
+        <v>29288.5677</v>
       </c>
       <c r="C234" t="n">
-        <v>4.4</v>
+        <v>71.8</v>
       </c>
       <c r="D234" t="n">
-        <v>13976.1814</v>
+        <v>3043.0762</v>
       </c>
       <c r="E234" t="n">
-        <v>4.1</v>
+        <v>39.1</v>
       </c>
       <c r="F234" t="n">
-        <v>139156.1948</v>
+        <v>32331.6439</v>
       </c>
       <c r="G234" t="n">
-        <v>4.4</v>
+        <v>68.09999999999999</v>
+      </c>
+      <c r="H234" t="n">
+        <v>15226.7656</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1495.5391</v>
+      </c>
+      <c r="J234" t="n">
+        <v>16722.3047</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>140175.4327</v>
+        <v>40988.1344</v>
       </c>
       <c r="C235" t="n">
-        <v>0.7</v>
+        <v>53.8</v>
       </c>
       <c r="D235" t="n">
-        <v>16356.739</v>
+        <v>4215.0049</v>
       </c>
       <c r="E235" t="n">
-        <v>3.9</v>
+        <v>29</v>
       </c>
       <c r="F235" t="n">
-        <v>156532.1717</v>
+        <v>45203.1393</v>
       </c>
       <c r="G235" t="n">
-        <v>1.1</v>
+        <v>51.1</v>
+      </c>
+      <c r="H235" t="n">
+        <v>11699.5667</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1171.9287</v>
+      </c>
+      <c r="J235" t="n">
+        <v>12871.4954</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>14061.8021</v>
+        <v>54212.5744</v>
       </c>
       <c r="C236" t="n">
-        <v>113</v>
+        <v>41.3</v>
       </c>
       <c r="D236" t="n">
-        <v>1547.5371</v>
+        <v>5480.4278</v>
       </c>
       <c r="E236" t="n">
-        <v>74.3</v>
+        <v>19.6</v>
       </c>
       <c r="F236" t="n">
-        <v>15609.3392</v>
+        <v>59693.0022</v>
       </c>
       <c r="G236" t="n">
-        <v>108.4</v>
+        <v>39</v>
+      </c>
+      <c r="H236" t="n">
+        <v>13224.44</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1265.4229</v>
+      </c>
+      <c r="J236" t="n">
+        <v>14489.8629</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>29288.5677</v>
+        <v>71578.4568</v>
       </c>
       <c r="C237" t="n">
-        <v>71.8</v>
+        <v>30.8</v>
       </c>
       <c r="D237" t="n">
-        <v>3043.0762</v>
+        <v>7502.9611</v>
       </c>
       <c r="E237" t="n">
-        <v>39.1</v>
+        <v>17.5</v>
       </c>
       <c r="F237" t="n">
-        <v>32331.6439</v>
+        <v>79081.4179</v>
       </c>
       <c r="G237" t="n">
-        <v>68.09999999999999</v>
+        <v>29.4</v>
+      </c>
+      <c r="H237" t="n">
+        <v>17365.8824</v>
+      </c>
+      <c r="I237" t="n">
+        <v>2022.5333</v>
+      </c>
+      <c r="J237" t="n">
+        <v>19388.4157</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>40988.1344</v>
+        <v>81962.0582</v>
       </c>
       <c r="C238" t="n">
-        <v>53.8</v>
+        <v>23.7</v>
       </c>
       <c r="D238" t="n">
-        <v>4215.0049</v>
+        <v>8635.870500000001</v>
       </c>
       <c r="E238" t="n">
-        <v>29</v>
+        <v>13.7</v>
       </c>
       <c r="F238" t="n">
-        <v>45203.1393</v>
+        <v>90597.9287</v>
       </c>
       <c r="G238" t="n">
-        <v>51.1</v>
+        <v>22.7</v>
+      </c>
+      <c r="H238" t="n">
+        <v>10383.6014</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1132.9094</v>
+      </c>
+      <c r="J238" t="n">
+        <v>11516.5108</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>54212.5744</v>
+        <v>91915.6664</v>
       </c>
       <c r="C239" t="n">
-        <v>41.3</v>
+        <v>17.3</v>
       </c>
       <c r="D239" t="n">
-        <v>5480.4278</v>
+        <v>9691.046</v>
       </c>
       <c r="E239" t="n">
-        <v>19.6</v>
+        <v>10</v>
       </c>
       <c r="F239" t="n">
-        <v>59693.0022</v>
+        <v>101606.7124</v>
       </c>
       <c r="G239" t="n">
-        <v>39</v>
+        <v>16.5</v>
+      </c>
+      <c r="H239" t="n">
+        <v>9953.608200000002</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1055.175499999999</v>
+      </c>
+      <c r="J239" t="n">
+        <v>11008.7837</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>71578.4568</v>
+        <v>104161.1059</v>
       </c>
       <c r="C240" t="n">
-        <v>30.8</v>
+        <v>11.8</v>
       </c>
       <c r="D240" t="n">
-        <v>7502.9611</v>
+        <v>11270.7626</v>
       </c>
       <c r="E240" t="n">
-        <v>17.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F240" t="n">
-        <v>79081.4179</v>
+        <v>115431.8685</v>
       </c>
       <c r="G240" t="n">
-        <v>29.4</v>
+        <v>11.4</v>
+      </c>
+      <c r="H240" t="n">
+        <v>12245.43949999999</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1579.7166</v>
+      </c>
+      <c r="J240" t="n">
+        <v>13825.15609999999</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>81962.0582</v>
+        <v>113967.0152</v>
       </c>
       <c r="C241" t="n">
-        <v>23.7</v>
+        <v>7.2</v>
       </c>
       <c r="D241" t="n">
-        <v>8635.870500000001</v>
+        <v>12452.232</v>
       </c>
       <c r="E241" t="n">
-        <v>13.7</v>
+        <v>5.4</v>
       </c>
       <c r="F241" t="n">
-        <v>90597.9287</v>
+        <v>126419.2472</v>
       </c>
       <c r="G241" t="n">
-        <v>22.7</v>
+        <v>7.1</v>
+      </c>
+      <c r="H241" t="n">
+        <v>9805.909299999999</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1181.4694</v>
+      </c>
+      <c r="J241" t="n">
+        <v>10987.3787</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>91915.6664</v>
+        <v>125180.0134</v>
       </c>
       <c r="C242" t="n">
-        <v>17.3</v>
+        <v>4.4</v>
       </c>
       <c r="D242" t="n">
-        <v>9691.046</v>
+        <v>13976.1814</v>
       </c>
       <c r="E242" t="n">
-        <v>10</v>
+        <v>4.1</v>
       </c>
       <c r="F242" t="n">
-        <v>101606.7124</v>
+        <v>139156.1948</v>
       </c>
       <c r="G242" t="n">
-        <v>16.5</v>
+        <v>4.4</v>
+      </c>
+      <c r="H242" t="n">
+        <v>11212.9982</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1523.9494</v>
+      </c>
+      <c r="J242" t="n">
+        <v>12736.9476</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>104161.1059</v>
+        <v>140175.4327</v>
       </c>
       <c r="C243" t="n">
-        <v>11.8</v>
+        <v>0.7</v>
       </c>
       <c r="D243" t="n">
-        <v>11270.7626</v>
+        <v>16356.739</v>
       </c>
       <c r="E243" t="n">
-        <v>8.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="F243" t="n">
-        <v>115431.8685</v>
+        <v>156532.1717</v>
       </c>
       <c r="G243" t="n">
-        <v>11.4</v>
+        <v>1.1</v>
+      </c>
+      <c r="H243" t="n">
+        <v>14995.41930000001</v>
+      </c>
+      <c r="I243" t="n">
+        <v>2380.5576</v>
+      </c>
+      <c r="J243" t="n">
+        <v>17375.97690000001</v>
       </c>
     </row>
   </sheetData>
